--- a/dengue_data.xlsx
+++ b/dengue_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bwedu-my.sharepoint.com/personal/niklas_winata_bwedu_de/Documents/Dokumente/GitHub/topic04_team02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{65BEBE5C-D88F-A04C-91B3-7BF055A71D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E85BC131-01F7-4210-BC22-0F6CA71533E5}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{65BEBE5C-D88F-A04C-91B3-7BF055A71D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5C6E8AF-ACF0-4819-BCB0-9DE10D0CD383}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{64A02902-B387-491A-9B35-22FDC8C0D208}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{64A02902-B387-491A-9B35-22FDC8C0D208}"/>
   </bookViews>
   <sheets>
     <sheet name="2006" sheetId="1" r:id="rId1"/>
@@ -4075,15 +4075,6 @@
     <xf numFmtId="1" fontId="35" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="32" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4107,6 +4098,15 @@
     </xf>
     <xf numFmtId="1" fontId="13" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -4432,8 +4432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F0D8584-63B6-4823-BB8B-22B0E005D599}">
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6903,8 +6903,8 @@
       </c>
     </row>
     <row r="57" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A57" s="126" t="s">
-        <v>382</v>
+      <c r="A57" s="123" t="s">
+        <v>68</v>
       </c>
       <c r="B57" s="120">
         <v>14782</v>
@@ -32413,13 +32413,13 @@
       <c r="B6" s="6">
         <v>820</v>
       </c>
-      <c r="C6" s="127">
+      <c r="C6" s="124">
         <v>0</v>
       </c>
-      <c r="D6" s="127">
+      <c r="D6" s="124">
         <v>0</v>
       </c>
-      <c r="E6" s="127">
+      <c r="E6" s="124">
         <v>0</v>
       </c>
       <c r="F6" s="6">
@@ -32501,7 +32501,7 @@
       <c r="B8" s="6">
         <v>392</v>
       </c>
-      <c r="C8" s="127">
+      <c r="C8" s="124">
         <v>0</v>
       </c>
       <c r="D8" s="6">
@@ -32545,16 +32545,16 @@
       <c r="B9" s="6">
         <v>210</v>
       </c>
-      <c r="C9" s="127">
+      <c r="C9" s="124">
         <v>0</v>
       </c>
-      <c r="D9" s="127">
+      <c r="D9" s="124">
         <v>0</v>
       </c>
-      <c r="E9" s="127">
+      <c r="E9" s="124">
         <v>0</v>
       </c>
-      <c r="F9" s="127">
+      <c r="F9" s="124">
         <v>0</v>
       </c>
       <c r="G9" s="6">
@@ -32578,7 +32578,7 @@
       <c r="M9" s="6">
         <v>8</v>
       </c>
-      <c r="N9" s="127">
+      <c r="N9" s="124">
         <v>0</v>
       </c>
     </row>
@@ -32589,7 +32589,7 @@
       <c r="B10" s="6">
         <v>78</v>
       </c>
-      <c r="C10" s="127">
+      <c r="C10" s="124">
         <v>0</v>
       </c>
       <c r="D10" s="6">
@@ -32633,13 +32633,13 @@
       <c r="B11" s="6">
         <v>51</v>
       </c>
-      <c r="C11" s="127">
+      <c r="C11" s="124">
         <v>0</v>
       </c>
-      <c r="D11" s="127">
+      <c r="D11" s="124">
         <v>0</v>
       </c>
-      <c r="E11" s="127">
+      <c r="E11" s="124">
         <v>0</v>
       </c>
       <c r="F11" s="6">
@@ -32666,7 +32666,7 @@
       <c r="M11" s="6">
         <v>1</v>
       </c>
-      <c r="N11" s="127">
+      <c r="N11" s="124">
         <v>0</v>
       </c>
     </row>
@@ -32680,7 +32680,7 @@
       <c r="C12" s="6">
         <v>2</v>
       </c>
-      <c r="D12" s="127">
+      <c r="D12" s="124">
         <v>0</v>
       </c>
       <c r="E12" s="6">
@@ -34528,7 +34528,7 @@
       <c r="C54" s="6">
         <v>4</v>
       </c>
-      <c r="D54" s="127">
+      <c r="D54" s="124">
         <v>0</v>
       </c>
       <c r="E54" s="6">
@@ -34651,46 +34651,46 @@
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A57" s="128" t="s">
+      <c r="A57" s="125" t="s">
         <v>383</v>
       </c>
-      <c r="B57" s="123">
+      <c r="B57" s="131">
         <v>17758</v>
       </c>
-      <c r="C57" s="123">
+      <c r="C57" s="131">
         <v>290</v>
       </c>
-      <c r="D57" s="123">
+      <c r="D57" s="131">
         <v>263</v>
       </c>
-      <c r="E57" s="123">
+      <c r="E57" s="131">
         <v>622</v>
       </c>
-      <c r="F57" s="123">
+      <c r="F57" s="131">
         <v>948</v>
       </c>
-      <c r="G57" s="123">
+      <c r="G57" s="131">
         <v>2102</v>
       </c>
-      <c r="H57" s="123">
+      <c r="H57" s="131">
         <v>4160</v>
       </c>
-      <c r="I57" s="123">
+      <c r="I57" s="131">
         <v>3164</v>
       </c>
-      <c r="J57" s="123">
+      <c r="J57" s="131">
         <v>2457</v>
       </c>
-      <c r="K57" s="123">
+      <c r="K57" s="131">
         <v>1978</v>
       </c>
-      <c r="L57" s="123">
+      <c r="L57" s="131">
         <v>1001</v>
       </c>
-      <c r="M57" s="123">
+      <c r="M57" s="131">
         <v>490</v>
       </c>
-      <c r="N57" s="123">
+      <c r="N57" s="131">
         <v>283</v>
       </c>
     </row>
@@ -34698,35 +34698,35 @@
       <c r="A58" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B58" s="124"/>
-      <c r="C58" s="124"/>
-      <c r="D58" s="124"/>
-      <c r="E58" s="124"/>
-      <c r="F58" s="124"/>
-      <c r="G58" s="124"/>
-      <c r="H58" s="124"/>
-      <c r="I58" s="124"/>
-      <c r="J58" s="124"/>
-      <c r="K58" s="124"/>
-      <c r="L58" s="124"/>
-      <c r="M58" s="124"/>
-      <c r="N58" s="124"/>
+      <c r="B58" s="132"/>
+      <c r="C58" s="132"/>
+      <c r="D58" s="132"/>
+      <c r="E58" s="132"/>
+      <c r="F58" s="132"/>
+      <c r="G58" s="132"/>
+      <c r="H58" s="132"/>
+      <c r="I58" s="132"/>
+      <c r="J58" s="132"/>
+      <c r="K58" s="132"/>
+      <c r="L58" s="132"/>
+      <c r="M58" s="132"/>
+      <c r="N58" s="132"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" s="9"/>
-      <c r="B59" s="125"/>
-      <c r="C59" s="125"/>
-      <c r="D59" s="125"/>
-      <c r="E59" s="125"/>
-      <c r="F59" s="125"/>
-      <c r="G59" s="125"/>
-      <c r="H59" s="125"/>
-      <c r="I59" s="125"/>
-      <c r="J59" s="125"/>
-      <c r="K59" s="125"/>
-      <c r="L59" s="125"/>
-      <c r="M59" s="125"/>
-      <c r="N59" s="125"/>
+      <c r="B59" s="133"/>
+      <c r="C59" s="133"/>
+      <c r="D59" s="133"/>
+      <c r="E59" s="133"/>
+      <c r="F59" s="133"/>
+      <c r="G59" s="133"/>
+      <c r="H59" s="133"/>
+      <c r="I59" s="133"/>
+      <c r="J59" s="133"/>
+      <c r="K59" s="133"/>
+      <c r="L59" s="133"/>
+      <c r="M59" s="133"/>
+      <c r="N59" s="133"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
@@ -34782,7 +34782,7 @@
       <c r="C61" s="6">
         <v>8</v>
       </c>
-      <c r="D61" s="127">
+      <c r="D61" s="124">
         <v>0</v>
       </c>
       <c r="E61" s="6">
@@ -34826,13 +34826,13 @@
       <c r="C62" s="6">
         <v>3</v>
       </c>
-      <c r="D62" s="127">
+      <c r="D62" s="124">
         <v>0</v>
       </c>
       <c r="E62" s="6">
         <v>6</v>
       </c>
-      <c r="F62" s="127">
+      <c r="F62" s="124">
         <v>0</v>
       </c>
       <c r="G62" s="6">
@@ -34856,7 +34856,7 @@
       <c r="M62" s="6">
         <v>2</v>
       </c>
-      <c r="N62" s="127">
+      <c r="N62" s="124">
         <v>0</v>
       </c>
     </row>
@@ -35114,13 +35114,13 @@
       <c r="K68" s="6">
         <v>1</v>
       </c>
-      <c r="L68" s="127">
+      <c r="L68" s="124">
         <v>0</v>
       </c>
-      <c r="M68" s="127">
+      <c r="M68" s="124">
         <v>0</v>
       </c>
-      <c r="N68" s="127">
+      <c r="N68" s="124">
         <v>0</v>
       </c>
     </row>
@@ -35263,7 +35263,7 @@
       <c r="B72" s="6">
         <v>740</v>
       </c>
-      <c r="C72" s="127">
+      <c r="C72" s="124">
         <v>0</v>
       </c>
       <c r="D72" s="6">
@@ -35645,10 +35645,10 @@
       <c r="L80" s="6">
         <v>15</v>
       </c>
-      <c r="M80" s="127">
+      <c r="M80" s="124">
         <v>0</v>
       </c>
-      <c r="N80" s="127">
+      <c r="N80" s="124">
         <v>0</v>
       </c>
     </row>
@@ -35777,7 +35777,7 @@
       <c r="L83" s="6">
         <v>3</v>
       </c>
-      <c r="M83" s="127">
+      <c r="M83" s="124">
         <v>0</v>
       </c>
       <c r="N83" s="6">
@@ -36586,7 +36586,7 @@
       <c r="C102" s="6">
         <v>3</v>
       </c>
-      <c r="D102" s="127">
+      <c r="D102" s="124">
         <v>0</v>
       </c>
       <c r="E102" s="6">
@@ -36666,12 +36666,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="G57:G59"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="F57:F59"/>
     <mergeCell ref="N57:N59"/>
     <mergeCell ref="H57:H59"/>
     <mergeCell ref="I57:I59"/>
@@ -36679,6 +36673,12 @@
     <mergeCell ref="K57:K59"/>
     <mergeCell ref="L57:L59"/>
     <mergeCell ref="M57:M59"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="F57:F59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -39027,7 +39027,7 @@
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A54" s="129" t="s">
+      <c r="A54" s="126" t="s">
         <v>382</v>
       </c>
       <c r="B54" s="19">
@@ -39124,7 +39124,7 @@
       <c r="C56" s="16">
         <v>2</v>
       </c>
-      <c r="D56" s="130">
+      <c r="D56" s="127">
         <v>0</v>
       </c>
       <c r="E56" s="16">
@@ -39195,7 +39195,7 @@
       <c r="L57" s="16">
         <v>2</v>
       </c>
-      <c r="M57" s="130">
+      <c r="M57" s="127">
         <v>0</v>
       </c>
       <c r="N57" s="16">
@@ -39347,7 +39347,7 @@
       <c r="D61" s="16">
         <v>6</v>
       </c>
-      <c r="E61" s="130">
+      <c r="E61" s="127">
         <v>0</v>
       </c>
       <c r="F61" s="16">
@@ -39412,13 +39412,13 @@
       <c r="K62" s="16">
         <v>2</v>
       </c>
-      <c r="L62" s="130">
+      <c r="L62" s="127">
         <v>0</v>
       </c>
-      <c r="M62" s="130">
+      <c r="M62" s="127">
         <v>0</v>
       </c>
-      <c r="N62" s="130">
+      <c r="N62" s="127">
         <v>0</v>
       </c>
     </row>
@@ -39462,7 +39462,7 @@
       <c r="M63" s="16">
         <v>6</v>
       </c>
-      <c r="N63" s="130">
+      <c r="N63" s="127">
         <v>0</v>
       </c>
     </row>
@@ -40356,7 +40356,7 @@
       <c r="C84" s="16">
         <v>1</v>
       </c>
-      <c r="D84" s="130">
+      <c r="D84" s="127">
         <v>0</v>
       </c>
       <c r="E84" s="16">
@@ -40529,7 +40529,7 @@
       <c r="B88" s="16">
         <v>351</v>
       </c>
-      <c r="C88" s="130">
+      <c r="C88" s="127">
         <v>0</v>
       </c>
       <c r="D88" s="16">
@@ -41697,13 +41697,13 @@
       <c r="E14" s="24">
         <v>1</v>
       </c>
-      <c r="F14" s="131">
+      <c r="F14" s="128">
         <v>0</v>
       </c>
       <c r="G14" s="24">
         <v>2</v>
       </c>
-      <c r="H14" s="131">
+      <c r="H14" s="128">
         <v>0</v>
       </c>
       <c r="I14" s="24">
@@ -43442,7 +43442,7 @@
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A54" s="132" t="s">
+      <c r="A54" s="129" t="s">
         <v>382</v>
       </c>
       <c r="B54" s="24">
@@ -43580,7 +43580,7 @@
       <c r="B57" s="26">
         <v>127</v>
       </c>
-      <c r="C57" s="133">
+      <c r="C57" s="130">
         <v>0</v>
       </c>
       <c r="D57" s="26">
@@ -43800,7 +43800,7 @@
       <c r="B62" s="26">
         <v>275</v>
       </c>
-      <c r="C62" s="133">
+      <c r="C62" s="130">
         <v>0</v>
       </c>
       <c r="D62" s="26">
@@ -43844,7 +43844,7 @@
       <c r="B63" s="26">
         <v>363</v>
       </c>
-      <c r="C63" s="133">
+      <c r="C63" s="130">
         <v>0</v>
       </c>
       <c r="D63" s="26">
@@ -43877,7 +43877,7 @@
       <c r="M63" s="26">
         <v>42</v>
       </c>
-      <c r="N63" s="133">
+      <c r="N63" s="130">
         <v>0</v>
       </c>
     </row>
@@ -44284,10 +44284,10 @@
       <c r="B73" s="26">
         <v>248</v>
       </c>
-      <c r="C73" s="133">
+      <c r="C73" s="130">
         <v>0</v>
       </c>
-      <c r="D73" s="133">
+      <c r="D73" s="130">
         <v>0</v>
       </c>
       <c r="E73" s="26">
@@ -44724,7 +44724,7 @@
       <c r="B83" s="26">
         <v>156</v>
       </c>
-      <c r="C83" s="133">
+      <c r="C83" s="130">
         <v>0</v>
       </c>
       <c r="D83" s="26">
@@ -44906,7 +44906,7 @@
       <c r="D87" s="26">
         <v>1</v>
       </c>
-      <c r="E87" s="133">
+      <c r="E87" s="130">
         <v>0</v>
       </c>
       <c r="F87" s="26">
@@ -44930,7 +44930,7 @@
       <c r="L87" s="26">
         <v>2</v>
       </c>
-      <c r="M87" s="133">
+      <c r="M87" s="130">
         <v>0</v>
       </c>
       <c r="N87" s="26">
@@ -44944,7 +44944,7 @@
       <c r="B88" s="26">
         <v>589</v>
       </c>
-      <c r="C88" s="133">
+      <c r="C88" s="130">
         <v>0</v>
       </c>
       <c r="D88" s="26">
@@ -45475,7 +45475,7 @@
       <c r="C100" s="26">
         <v>3</v>
       </c>
-      <c r="D100" s="133">
+      <c r="D100" s="130">
         <v>0</v>
       </c>
       <c r="E100" s="26">
@@ -45518,7 +45518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C095B6E-1B3F-4B01-AB3D-F6481E7A6833}">
   <dimension ref="A1:N100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>

--- a/dengue_data.xlsx
+++ b/dengue_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bwedu-my.sharepoint.com/personal/niklas_winata_bwedu_de/Documents/Dokumente/GitHub/topic04_team02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{65BEBE5C-D88F-A04C-91B3-7BF055A71D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5C6E8AF-ACF0-4819-BCB0-9DE10D0CD383}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{65BEBE5C-D88F-A04C-91B3-7BF055A71D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{436AFC81-CD48-45B6-9278-252442963290}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{64A02902-B387-491A-9B35-22FDC8C0D208}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{64A02902-B387-491A-9B35-22FDC8C0D208}"/>
   </bookViews>
   <sheets>
     <sheet name="2006" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="384">
   <si>
     <t>Reporting areas</t>
   </si>
@@ -3709,7 +3709,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4108,6 +4108,39 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal_tds26" xfId="2" xr:uid="{C8C66CBD-9817-4EE4-B48C-EF5BE5483A8C}"/>
@@ -4432,7 +4465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F0D8584-63B6-4823-BB8B-22B0E005D599}">
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
@@ -36666,6 +36699,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="F57:F59"/>
     <mergeCell ref="N57:N59"/>
     <mergeCell ref="H57:H59"/>
     <mergeCell ref="I57:I59"/>
@@ -36673,12 +36712,6 @@
     <mergeCell ref="K57:K59"/>
     <mergeCell ref="L57:L59"/>
     <mergeCell ref="M57:M59"/>
-    <mergeCell ref="G57:G59"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="F57:F59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -49931,10 +49964,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95F0A6C1-62A1-4AB4-88E1-992129075AE4}">
-  <dimension ref="A1:N53"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="P45" sqref="P45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -52269,6 +52302,2118 @@
       </c>
       <c r="N53" s="49">
         <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A54" s="141" t="s">
+        <v>68</v>
+      </c>
+      <c r="B54" s="142">
+        <v>15830</v>
+      </c>
+      <c r="C54" s="142">
+        <v>225</v>
+      </c>
+      <c r="D54" s="142">
+        <v>160</v>
+      </c>
+      <c r="E54" s="142">
+        <v>289</v>
+      </c>
+      <c r="F54" s="142">
+        <v>447</v>
+      </c>
+      <c r="G54" s="142">
+        <v>1704</v>
+      </c>
+      <c r="H54" s="142">
+        <v>3304</v>
+      </c>
+      <c r="I54" s="142">
+        <v>3506</v>
+      </c>
+      <c r="J54" s="142">
+        <v>3003</v>
+      </c>
+      <c r="K54" s="142">
+        <v>1726</v>
+      </c>
+      <c r="L54" s="142">
+        <v>719</v>
+      </c>
+      <c r="M54" s="142">
+        <v>502</v>
+      </c>
+      <c r="N54" s="142">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A55" s="136" t="s">
+        <v>69</v>
+      </c>
+      <c r="B55" s="137">
+        <v>761</v>
+      </c>
+      <c r="C55" s="137">
+        <v>10</v>
+      </c>
+      <c r="D55" s="137">
+        <v>11</v>
+      </c>
+      <c r="E55" s="137">
+        <v>8</v>
+      </c>
+      <c r="F55" s="137">
+        <v>16</v>
+      </c>
+      <c r="G55" s="137">
+        <v>80</v>
+      </c>
+      <c r="H55" s="137">
+        <v>191</v>
+      </c>
+      <c r="I55" s="137">
+        <v>185</v>
+      </c>
+      <c r="J55" s="137">
+        <v>110</v>
+      </c>
+      <c r="K55" s="137">
+        <v>90</v>
+      </c>
+      <c r="L55" s="137">
+        <v>29</v>
+      </c>
+      <c r="M55" s="137">
+        <v>24</v>
+      </c>
+      <c r="N55" s="137">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A56" s="143" t="s">
+        <v>141</v>
+      </c>
+      <c r="B56" s="144">
+        <v>54</v>
+      </c>
+      <c r="C56" s="144">
+        <v>1</v>
+      </c>
+      <c r="D56" s="144">
+        <v>1</v>
+      </c>
+      <c r="E56" s="144">
+        <v>0</v>
+      </c>
+      <c r="F56" s="144">
+        <v>0</v>
+      </c>
+      <c r="G56" s="144">
+        <v>3</v>
+      </c>
+      <c r="H56" s="144">
+        <v>14</v>
+      </c>
+      <c r="I56" s="144">
+        <v>12</v>
+      </c>
+      <c r="J56" s="144">
+        <v>8</v>
+      </c>
+      <c r="K56" s="144">
+        <v>10</v>
+      </c>
+      <c r="L56" s="144">
+        <v>3</v>
+      </c>
+      <c r="M56" s="144">
+        <v>2</v>
+      </c>
+      <c r="N56" s="144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A57" s="134" t="s">
+        <v>70</v>
+      </c>
+      <c r="B57" s="135">
+        <v>311</v>
+      </c>
+      <c r="C57" s="135">
+        <v>1</v>
+      </c>
+      <c r="D57" s="135">
+        <v>7</v>
+      </c>
+      <c r="E57" s="135">
+        <v>5</v>
+      </c>
+      <c r="F57" s="135">
+        <v>11</v>
+      </c>
+      <c r="G57" s="135">
+        <v>45</v>
+      </c>
+      <c r="H57" s="135">
+        <v>68</v>
+      </c>
+      <c r="I57" s="135">
+        <v>81</v>
+      </c>
+      <c r="J57" s="135">
+        <v>26</v>
+      </c>
+      <c r="K57" s="135">
+        <v>36</v>
+      </c>
+      <c r="L57" s="135">
+        <v>16</v>
+      </c>
+      <c r="M57" s="135">
+        <v>10</v>
+      </c>
+      <c r="N57" s="135">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A58" s="134" t="s">
+        <v>71</v>
+      </c>
+      <c r="B58" s="135">
+        <v>94</v>
+      </c>
+      <c r="C58" s="135">
+        <v>1</v>
+      </c>
+      <c r="D58" s="135">
+        <v>1</v>
+      </c>
+      <c r="E58" s="135">
+        <v>3</v>
+      </c>
+      <c r="F58" s="135">
+        <v>3</v>
+      </c>
+      <c r="G58" s="135">
+        <v>13</v>
+      </c>
+      <c r="H58" s="135">
+        <v>34</v>
+      </c>
+      <c r="I58" s="135">
+        <v>23</v>
+      </c>
+      <c r="J58" s="135">
+        <v>13</v>
+      </c>
+      <c r="K58" s="135">
+        <v>3</v>
+      </c>
+      <c r="L58" s="135">
+        <v>0</v>
+      </c>
+      <c r="M58" s="135">
+        <v>0</v>
+      </c>
+      <c r="N58" s="135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A59" s="134" t="s">
+        <v>72</v>
+      </c>
+      <c r="B59" s="135">
+        <v>154</v>
+      </c>
+      <c r="C59" s="135">
+        <v>5</v>
+      </c>
+      <c r="D59" s="135">
+        <v>1</v>
+      </c>
+      <c r="E59" s="135">
+        <v>0</v>
+      </c>
+      <c r="F59" s="135">
+        <v>1</v>
+      </c>
+      <c r="G59" s="135">
+        <v>5</v>
+      </c>
+      <c r="H59" s="135">
+        <v>44</v>
+      </c>
+      <c r="I59" s="135">
+        <v>38</v>
+      </c>
+      <c r="J59" s="135">
+        <v>31</v>
+      </c>
+      <c r="K59" s="135">
+        <v>21</v>
+      </c>
+      <c r="L59" s="135">
+        <v>2</v>
+      </c>
+      <c r="M59" s="135">
+        <v>6</v>
+      </c>
+      <c r="N59" s="135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A60" s="134" t="s">
+        <v>73</v>
+      </c>
+      <c r="B60" s="135">
+        <v>148</v>
+      </c>
+      <c r="C60" s="135">
+        <v>2</v>
+      </c>
+      <c r="D60" s="135">
+        <v>1</v>
+      </c>
+      <c r="E60" s="135">
+        <v>0</v>
+      </c>
+      <c r="F60" s="135">
+        <v>1</v>
+      </c>
+      <c r="G60" s="135">
+        <v>14</v>
+      </c>
+      <c r="H60" s="135">
+        <v>31</v>
+      </c>
+      <c r="I60" s="135">
+        <v>31</v>
+      </c>
+      <c r="J60" s="135">
+        <v>32</v>
+      </c>
+      <c r="K60" s="135">
+        <v>20</v>
+      </c>
+      <c r="L60" s="135">
+        <v>8</v>
+      </c>
+      <c r="M60" s="135">
+        <v>6</v>
+      </c>
+      <c r="N60" s="135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A61" s="138" t="s">
+        <v>74</v>
+      </c>
+      <c r="B61" s="137">
+        <v>438</v>
+      </c>
+      <c r="C61" s="137">
+        <v>1</v>
+      </c>
+      <c r="D61" s="137">
+        <v>3</v>
+      </c>
+      <c r="E61" s="137">
+        <v>6</v>
+      </c>
+      <c r="F61" s="137">
+        <v>10</v>
+      </c>
+      <c r="G61" s="137">
+        <v>54</v>
+      </c>
+      <c r="H61" s="137">
+        <v>112</v>
+      </c>
+      <c r="I61" s="137">
+        <v>113</v>
+      </c>
+      <c r="J61" s="137">
+        <v>69</v>
+      </c>
+      <c r="K61" s="137">
+        <v>39</v>
+      </c>
+      <c r="L61" s="137">
+        <v>21</v>
+      </c>
+      <c r="M61" s="137">
+        <v>3</v>
+      </c>
+      <c r="N61" s="137">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A62" s="134" t="s">
+        <v>76</v>
+      </c>
+      <c r="B62" s="135">
+        <v>112</v>
+      </c>
+      <c r="C62" s="135">
+        <v>0</v>
+      </c>
+      <c r="D62" s="135">
+        <v>1</v>
+      </c>
+      <c r="E62" s="135">
+        <v>6</v>
+      </c>
+      <c r="F62" s="135">
+        <v>4</v>
+      </c>
+      <c r="G62" s="135">
+        <v>11</v>
+      </c>
+      <c r="H62" s="135">
+        <v>32</v>
+      </c>
+      <c r="I62" s="135">
+        <v>37</v>
+      </c>
+      <c r="J62" s="135">
+        <v>12</v>
+      </c>
+      <c r="K62" s="135">
+        <v>7</v>
+      </c>
+      <c r="L62" s="135">
+        <v>2</v>
+      </c>
+      <c r="M62" s="135">
+        <v>0</v>
+      </c>
+      <c r="N62" s="135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A63" s="134" t="s">
+        <v>77</v>
+      </c>
+      <c r="B63" s="135">
+        <v>233</v>
+      </c>
+      <c r="C63" s="135">
+        <v>1</v>
+      </c>
+      <c r="D63" s="135">
+        <v>2</v>
+      </c>
+      <c r="E63" s="135">
+        <v>0</v>
+      </c>
+      <c r="F63" s="135">
+        <v>3</v>
+      </c>
+      <c r="G63" s="135">
+        <v>30</v>
+      </c>
+      <c r="H63" s="135">
+        <v>51</v>
+      </c>
+      <c r="I63" s="135">
+        <v>58</v>
+      </c>
+      <c r="J63" s="135">
+        <v>39</v>
+      </c>
+      <c r="K63" s="135">
+        <v>28</v>
+      </c>
+      <c r="L63" s="135">
+        <v>13</v>
+      </c>
+      <c r="M63" s="135">
+        <v>3</v>
+      </c>
+      <c r="N63" s="135">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A64" s="134" t="s">
+        <v>78</v>
+      </c>
+      <c r="B64" s="135">
+        <v>93</v>
+      </c>
+      <c r="C64" s="135">
+        <v>0</v>
+      </c>
+      <c r="D64" s="135">
+        <v>0</v>
+      </c>
+      <c r="E64" s="135">
+        <v>0</v>
+      </c>
+      <c r="F64" s="135">
+        <v>3</v>
+      </c>
+      <c r="G64" s="135">
+        <v>13</v>
+      </c>
+      <c r="H64" s="135">
+        <v>29</v>
+      </c>
+      <c r="I64" s="135">
+        <v>18</v>
+      </c>
+      <c r="J64" s="135">
+        <v>18</v>
+      </c>
+      <c r="K64" s="135">
+        <v>4</v>
+      </c>
+      <c r="L64" s="135">
+        <v>6</v>
+      </c>
+      <c r="M64" s="135">
+        <v>0</v>
+      </c>
+      <c r="N64" s="135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A65" s="138" t="s">
+        <v>79</v>
+      </c>
+      <c r="B65" s="137">
+        <v>3827</v>
+      </c>
+      <c r="C65" s="137">
+        <v>39</v>
+      </c>
+      <c r="D65" s="137">
+        <v>31</v>
+      </c>
+      <c r="E65" s="137">
+        <v>44</v>
+      </c>
+      <c r="F65" s="137">
+        <v>81</v>
+      </c>
+      <c r="G65" s="137">
+        <v>365</v>
+      </c>
+      <c r="H65" s="137">
+        <v>744</v>
+      </c>
+      <c r="I65" s="137">
+        <v>912</v>
+      </c>
+      <c r="J65" s="137">
+        <v>773</v>
+      </c>
+      <c r="K65" s="137">
+        <v>439</v>
+      </c>
+      <c r="L65" s="137">
+        <v>202</v>
+      </c>
+      <c r="M65" s="137">
+        <v>126</v>
+      </c>
+      <c r="N65" s="137">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A66" s="134" t="s">
+        <v>127</v>
+      </c>
+      <c r="B66" s="135">
+        <v>238</v>
+      </c>
+      <c r="C66" s="135">
+        <v>7</v>
+      </c>
+      <c r="D66" s="135">
+        <v>1</v>
+      </c>
+      <c r="E66" s="135">
+        <v>4</v>
+      </c>
+      <c r="F66" s="135">
+        <v>7</v>
+      </c>
+      <c r="G66" s="135">
+        <v>26</v>
+      </c>
+      <c r="H66" s="135">
+        <v>42</v>
+      </c>
+      <c r="I66" s="135">
+        <v>72</v>
+      </c>
+      <c r="J66" s="135">
+        <v>42</v>
+      </c>
+      <c r="K66" s="135">
+        <v>17</v>
+      </c>
+      <c r="L66" s="135">
+        <v>10</v>
+      </c>
+      <c r="M66" s="135">
+        <v>3</v>
+      </c>
+      <c r="N66" s="135">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A67" s="134" t="s">
+        <v>80</v>
+      </c>
+      <c r="B67" s="135">
+        <v>1261</v>
+      </c>
+      <c r="C67" s="135">
+        <v>14</v>
+      </c>
+      <c r="D67" s="135">
+        <v>13</v>
+      </c>
+      <c r="E67" s="135">
+        <v>6</v>
+      </c>
+      <c r="F67" s="135">
+        <v>30</v>
+      </c>
+      <c r="G67" s="135">
+        <v>127</v>
+      </c>
+      <c r="H67" s="135">
+        <v>241</v>
+      </c>
+      <c r="I67" s="135">
+        <v>311</v>
+      </c>
+      <c r="J67" s="135">
+        <v>197</v>
+      </c>
+      <c r="K67" s="135">
+        <v>141</v>
+      </c>
+      <c r="L67" s="135">
+        <v>86</v>
+      </c>
+      <c r="M67" s="135">
+        <v>49</v>
+      </c>
+      <c r="N67" s="135">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A68" s="134" t="s">
+        <v>81</v>
+      </c>
+      <c r="B68" s="135">
+        <v>601</v>
+      </c>
+      <c r="C68" s="135">
+        <v>9</v>
+      </c>
+      <c r="D68" s="135">
+        <v>5</v>
+      </c>
+      <c r="E68" s="135">
+        <v>11</v>
+      </c>
+      <c r="F68" s="135">
+        <v>9</v>
+      </c>
+      <c r="G68" s="135">
+        <v>49</v>
+      </c>
+      <c r="H68" s="135">
+        <v>82</v>
+      </c>
+      <c r="I68" s="135">
+        <v>145</v>
+      </c>
+      <c r="J68" s="135">
+        <v>111</v>
+      </c>
+      <c r="K68" s="135">
+        <v>105</v>
+      </c>
+      <c r="L68" s="135">
+        <v>40</v>
+      </c>
+      <c r="M68" s="135">
+        <v>29</v>
+      </c>
+      <c r="N68" s="135">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A69" s="134" t="s">
+        <v>82</v>
+      </c>
+      <c r="B69" s="135">
+        <v>1727</v>
+      </c>
+      <c r="C69" s="135">
+        <v>9</v>
+      </c>
+      <c r="D69" s="135">
+        <v>12</v>
+      </c>
+      <c r="E69" s="135">
+        <v>23</v>
+      </c>
+      <c r="F69" s="135">
+        <v>35</v>
+      </c>
+      <c r="G69" s="135">
+        <v>163</v>
+      </c>
+      <c r="H69" s="135">
+        <v>379</v>
+      </c>
+      <c r="I69" s="135">
+        <v>384</v>
+      </c>
+      <c r="J69" s="135">
+        <v>423</v>
+      </c>
+      <c r="K69" s="135">
+        <v>176</v>
+      </c>
+      <c r="L69" s="135">
+        <v>66</v>
+      </c>
+      <c r="M69" s="135">
+        <v>45</v>
+      </c>
+      <c r="N69" s="135">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A70" s="138" t="s">
+        <v>83</v>
+      </c>
+      <c r="B70" s="137">
+        <v>3610</v>
+      </c>
+      <c r="C70" s="137">
+        <v>37</v>
+      </c>
+      <c r="D70" s="137">
+        <v>41</v>
+      </c>
+      <c r="E70" s="137">
+        <v>63</v>
+      </c>
+      <c r="F70" s="137">
+        <v>129</v>
+      </c>
+      <c r="G70" s="137">
+        <v>541</v>
+      </c>
+      <c r="H70" s="137">
+        <v>791</v>
+      </c>
+      <c r="I70" s="137">
+        <v>806</v>
+      </c>
+      <c r="J70" s="137">
+        <v>643</v>
+      </c>
+      <c r="K70" s="137">
+        <v>329</v>
+      </c>
+      <c r="L70" s="137">
+        <v>134</v>
+      </c>
+      <c r="M70" s="137">
+        <v>64</v>
+      </c>
+      <c r="N70" s="137">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A71" s="134" t="s">
+        <v>89</v>
+      </c>
+      <c r="B71" s="135">
+        <v>309</v>
+      </c>
+      <c r="C71" s="135">
+        <v>5</v>
+      </c>
+      <c r="D71" s="135">
+        <v>2</v>
+      </c>
+      <c r="E71" s="135">
+        <v>7</v>
+      </c>
+      <c r="F71" s="135">
+        <v>8</v>
+      </c>
+      <c r="G71" s="135">
+        <v>65</v>
+      </c>
+      <c r="H71" s="135">
+        <v>63</v>
+      </c>
+      <c r="I71" s="135">
+        <v>97</v>
+      </c>
+      <c r="J71" s="135">
+        <v>30</v>
+      </c>
+      <c r="K71" s="135">
+        <v>19</v>
+      </c>
+      <c r="L71" s="135">
+        <v>3</v>
+      </c>
+      <c r="M71" s="135">
+        <v>7</v>
+      </c>
+      <c r="N71" s="135">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A72" s="134" t="s">
+        <v>90</v>
+      </c>
+      <c r="B72" s="135">
+        <v>2039</v>
+      </c>
+      <c r="C72" s="135">
+        <v>11</v>
+      </c>
+      <c r="D72" s="135">
+        <v>20</v>
+      </c>
+      <c r="E72" s="135">
+        <v>39</v>
+      </c>
+      <c r="F72" s="135">
+        <v>87</v>
+      </c>
+      <c r="G72" s="135">
+        <v>321</v>
+      </c>
+      <c r="H72" s="135">
+        <v>405</v>
+      </c>
+      <c r="I72" s="135">
+        <v>461</v>
+      </c>
+      <c r="J72" s="135">
+        <v>377</v>
+      </c>
+      <c r="K72" s="135">
+        <v>182</v>
+      </c>
+      <c r="L72" s="135">
+        <v>77</v>
+      </c>
+      <c r="M72" s="135">
+        <v>32</v>
+      </c>
+      <c r="N72" s="135">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A73" s="134" t="s">
+        <v>91</v>
+      </c>
+      <c r="B73" s="135">
+        <v>1088</v>
+      </c>
+      <c r="C73" s="135">
+        <v>20</v>
+      </c>
+      <c r="D73" s="135">
+        <v>19</v>
+      </c>
+      <c r="E73" s="135">
+        <v>16</v>
+      </c>
+      <c r="F73" s="135">
+        <v>29</v>
+      </c>
+      <c r="G73" s="135">
+        <v>137</v>
+      </c>
+      <c r="H73" s="135">
+        <v>288</v>
+      </c>
+      <c r="I73" s="135">
+        <v>208</v>
+      </c>
+      <c r="J73" s="135">
+        <v>190</v>
+      </c>
+      <c r="K73" s="135">
+        <v>112</v>
+      </c>
+      <c r="L73" s="135">
+        <v>44</v>
+      </c>
+      <c r="M73" s="135">
+        <v>23</v>
+      </c>
+      <c r="N73" s="135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A74" s="134" t="s">
+        <v>92</v>
+      </c>
+      <c r="B74" s="135">
+        <v>174</v>
+      </c>
+      <c r="C74" s="135">
+        <v>1</v>
+      </c>
+      <c r="D74" s="135">
+        <v>0</v>
+      </c>
+      <c r="E74" s="135">
+        <v>1</v>
+      </c>
+      <c r="F74" s="135">
+        <v>5</v>
+      </c>
+      <c r="G74" s="135">
+        <v>18</v>
+      </c>
+      <c r="H74" s="135">
+        <v>35</v>
+      </c>
+      <c r="I74" s="135">
+        <v>40</v>
+      </c>
+      <c r="J74" s="135">
+        <v>46</v>
+      </c>
+      <c r="K74" s="135">
+        <v>16</v>
+      </c>
+      <c r="L74" s="135">
+        <v>10</v>
+      </c>
+      <c r="M74" s="135">
+        <v>2</v>
+      </c>
+      <c r="N74" s="135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A75" s="138" t="s">
+        <v>88</v>
+      </c>
+      <c r="B75" s="137">
+        <v>7194</v>
+      </c>
+      <c r="C75" s="137">
+        <v>138</v>
+      </c>
+      <c r="D75" s="137">
+        <v>74</v>
+      </c>
+      <c r="E75" s="137">
+        <v>168</v>
+      </c>
+      <c r="F75" s="137">
+        <v>211</v>
+      </c>
+      <c r="G75" s="137">
+        <v>664</v>
+      </c>
+      <c r="H75" s="137">
+        <v>1466</v>
+      </c>
+      <c r="I75" s="137">
+        <v>1490</v>
+      </c>
+      <c r="J75" s="137">
+        <v>1408</v>
+      </c>
+      <c r="K75" s="137">
+        <v>829</v>
+      </c>
+      <c r="L75" s="137">
+        <v>333</v>
+      </c>
+      <c r="M75" s="137">
+        <v>285</v>
+      </c>
+      <c r="N75" s="137">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A76" s="134" t="s">
+        <v>84</v>
+      </c>
+      <c r="B76" s="135">
+        <v>1835</v>
+      </c>
+      <c r="C76" s="135">
+        <v>49</v>
+      </c>
+      <c r="D76" s="135">
+        <v>16</v>
+      </c>
+      <c r="E76" s="135">
+        <v>42</v>
+      </c>
+      <c r="F76" s="135">
+        <v>54</v>
+      </c>
+      <c r="G76" s="135">
+        <v>163</v>
+      </c>
+      <c r="H76" s="135">
+        <v>439</v>
+      </c>
+      <c r="I76" s="135">
+        <v>373</v>
+      </c>
+      <c r="J76" s="135">
+        <v>359</v>
+      </c>
+      <c r="K76" s="135">
+        <v>238</v>
+      </c>
+      <c r="L76" s="135">
+        <v>32</v>
+      </c>
+      <c r="M76" s="135">
+        <v>54</v>
+      </c>
+      <c r="N76" s="135">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A77" s="134" t="s">
+        <v>85</v>
+      </c>
+      <c r="B77" s="135">
+        <v>878</v>
+      </c>
+      <c r="C77" s="135">
+        <v>8</v>
+      </c>
+      <c r="D77" s="135">
+        <v>6</v>
+      </c>
+      <c r="E77" s="135">
+        <v>11</v>
+      </c>
+      <c r="F77" s="135">
+        <v>38</v>
+      </c>
+      <c r="G77" s="135">
+        <v>86</v>
+      </c>
+      <c r="H77" s="135">
+        <v>177</v>
+      </c>
+      <c r="I77" s="135">
+        <v>150</v>
+      </c>
+      <c r="J77" s="135">
+        <v>150</v>
+      </c>
+      <c r="K77" s="135">
+        <v>99</v>
+      </c>
+      <c r="L77" s="135">
+        <v>80</v>
+      </c>
+      <c r="M77" s="135">
+        <v>48</v>
+      </c>
+      <c r="N77" s="135">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A78" s="134" t="s">
+        <v>86</v>
+      </c>
+      <c r="B78" s="135">
+        <v>2530</v>
+      </c>
+      <c r="C78" s="135">
+        <v>44</v>
+      </c>
+      <c r="D78" s="135">
+        <v>35</v>
+      </c>
+      <c r="E78" s="135">
+        <v>56</v>
+      </c>
+      <c r="F78" s="135">
+        <v>79</v>
+      </c>
+      <c r="G78" s="135">
+        <v>215</v>
+      </c>
+      <c r="H78" s="135">
+        <v>413</v>
+      </c>
+      <c r="I78" s="135">
+        <v>470</v>
+      </c>
+      <c r="J78" s="135">
+        <v>519</v>
+      </c>
+      <c r="K78" s="135">
+        <v>317</v>
+      </c>
+      <c r="L78" s="135">
+        <v>157</v>
+      </c>
+      <c r="M78" s="135">
+        <v>151</v>
+      </c>
+      <c r="N78" s="135">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A79" s="134" t="s">
+        <v>87</v>
+      </c>
+      <c r="B79" s="135">
+        <v>1951</v>
+      </c>
+      <c r="C79" s="135">
+        <v>37</v>
+      </c>
+      <c r="D79" s="135">
+        <v>17</v>
+      </c>
+      <c r="E79" s="135">
+        <v>59</v>
+      </c>
+      <c r="F79" s="135">
+        <v>40</v>
+      </c>
+      <c r="G79" s="135">
+        <v>200</v>
+      </c>
+      <c r="H79" s="135">
+        <v>437</v>
+      </c>
+      <c r="I79" s="135">
+        <v>497</v>
+      </c>
+      <c r="J79" s="135">
+        <v>380</v>
+      </c>
+      <c r="K79" s="135">
+        <v>175</v>
+      </c>
+      <c r="L79" s="135">
+        <v>64</v>
+      </c>
+      <c r="M79" s="135">
+        <v>32</v>
+      </c>
+      <c r="N79" s="135">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A80" s="141" t="s">
+        <v>14</v>
+      </c>
+      <c r="B80" s="142">
+        <v>12256</v>
+      </c>
+      <c r="C80" s="142">
+        <v>283</v>
+      </c>
+      <c r="D80" s="142">
+        <v>280</v>
+      </c>
+      <c r="E80" s="142">
+        <v>317</v>
+      </c>
+      <c r="F80" s="142">
+        <v>601</v>
+      </c>
+      <c r="G80" s="142">
+        <v>1710</v>
+      </c>
+      <c r="H80" s="142">
+        <v>3010</v>
+      </c>
+      <c r="I80" s="142">
+        <v>2529</v>
+      </c>
+      <c r="J80" s="142">
+        <v>1729</v>
+      </c>
+      <c r="K80" s="142">
+        <v>837</v>
+      </c>
+      <c r="L80" s="142">
+        <v>429</v>
+      </c>
+      <c r="M80" s="142">
+        <v>368</v>
+      </c>
+      <c r="N80" s="142">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A81" s="136" t="s">
+        <v>94</v>
+      </c>
+      <c r="B81" s="137">
+        <v>1076</v>
+      </c>
+      <c r="C81" s="137">
+        <v>44</v>
+      </c>
+      <c r="D81" s="137">
+        <v>11</v>
+      </c>
+      <c r="E81" s="137">
+        <v>23</v>
+      </c>
+      <c r="F81" s="137">
+        <v>31</v>
+      </c>
+      <c r="G81" s="137">
+        <v>180</v>
+      </c>
+      <c r="H81" s="137">
+        <v>260</v>
+      </c>
+      <c r="I81" s="137">
+        <v>192</v>
+      </c>
+      <c r="J81" s="137">
+        <v>145</v>
+      </c>
+      <c r="K81" s="137">
+        <v>75</v>
+      </c>
+      <c r="L81" s="137">
+        <v>40</v>
+      </c>
+      <c r="M81" s="137">
+        <v>54</v>
+      </c>
+      <c r="N81" s="137">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A82" s="134" t="s">
+        <v>16</v>
+      </c>
+      <c r="B82" s="135">
+        <v>601</v>
+      </c>
+      <c r="C82" s="135">
+        <v>29</v>
+      </c>
+      <c r="D82" s="135">
+        <v>7</v>
+      </c>
+      <c r="E82" s="135">
+        <v>11</v>
+      </c>
+      <c r="F82" s="135">
+        <v>12</v>
+      </c>
+      <c r="G82" s="135">
+        <v>87</v>
+      </c>
+      <c r="H82" s="135">
+        <v>142</v>
+      </c>
+      <c r="I82" s="135">
+        <v>93</v>
+      </c>
+      <c r="J82" s="135">
+        <v>96</v>
+      </c>
+      <c r="K82" s="135">
+        <v>49</v>
+      </c>
+      <c r="L82" s="135">
+        <v>22</v>
+      </c>
+      <c r="M82" s="135">
+        <v>40</v>
+      </c>
+      <c r="N82" s="135">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A83" s="134" t="s">
+        <v>18</v>
+      </c>
+      <c r="B83" s="135">
+        <v>204</v>
+      </c>
+      <c r="C83" s="135">
+        <v>11</v>
+      </c>
+      <c r="D83" s="135">
+        <v>3</v>
+      </c>
+      <c r="E83" s="135">
+        <v>4</v>
+      </c>
+      <c r="F83" s="135">
+        <v>6</v>
+      </c>
+      <c r="G83" s="135">
+        <v>26</v>
+      </c>
+      <c r="H83" s="135">
+        <v>48</v>
+      </c>
+      <c r="I83" s="135">
+        <v>47</v>
+      </c>
+      <c r="J83" s="135">
+        <v>26</v>
+      </c>
+      <c r="K83" s="135">
+        <v>13</v>
+      </c>
+      <c r="L83" s="135">
+        <v>7</v>
+      </c>
+      <c r="M83" s="135">
+        <v>5</v>
+      </c>
+      <c r="N83" s="135">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A84" s="134" t="s">
+        <v>19</v>
+      </c>
+      <c r="B84" s="135">
+        <v>102</v>
+      </c>
+      <c r="C84" s="135">
+        <v>2</v>
+      </c>
+      <c r="D84" s="135">
+        <v>1</v>
+      </c>
+      <c r="E84" s="135">
+        <v>4</v>
+      </c>
+      <c r="F84" s="135">
+        <v>5</v>
+      </c>
+      <c r="G84" s="135">
+        <v>12</v>
+      </c>
+      <c r="H84" s="135">
+        <v>28</v>
+      </c>
+      <c r="I84" s="135">
+        <v>16</v>
+      </c>
+      <c r="J84" s="135">
+        <v>13</v>
+      </c>
+      <c r="K84" s="135">
+        <v>9</v>
+      </c>
+      <c r="L84" s="135">
+        <v>7</v>
+      </c>
+      <c r="M84" s="135">
+        <v>5</v>
+      </c>
+      <c r="N84" s="135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A85" s="134" t="s">
+        <v>20</v>
+      </c>
+      <c r="B85" s="135">
+        <v>169</v>
+      </c>
+      <c r="C85" s="135">
+        <v>2</v>
+      </c>
+      <c r="D85" s="135">
+        <v>0</v>
+      </c>
+      <c r="E85" s="135">
+        <v>4</v>
+      </c>
+      <c r="F85" s="135">
+        <v>8</v>
+      </c>
+      <c r="G85" s="135">
+        <v>55</v>
+      </c>
+      <c r="H85" s="135">
+        <v>42</v>
+      </c>
+      <c r="I85" s="135">
+        <v>36</v>
+      </c>
+      <c r="J85" s="135">
+        <v>10</v>
+      </c>
+      <c r="K85" s="135">
+        <v>4</v>
+      </c>
+      <c r="L85" s="135">
+        <v>4</v>
+      </c>
+      <c r="M85" s="135">
+        <v>4</v>
+      </c>
+      <c r="N85" s="135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A86" s="138" t="s">
+        <v>98</v>
+      </c>
+      <c r="B86" s="137">
+        <v>816</v>
+      </c>
+      <c r="C86" s="137">
+        <v>26</v>
+      </c>
+      <c r="D86" s="137">
+        <v>13</v>
+      </c>
+      <c r="E86" s="137">
+        <v>8</v>
+      </c>
+      <c r="F86" s="137">
+        <v>23</v>
+      </c>
+      <c r="G86" s="137">
+        <v>83</v>
+      </c>
+      <c r="H86" s="137">
+        <v>207</v>
+      </c>
+      <c r="I86" s="137">
+        <v>153</v>
+      </c>
+      <c r="J86" s="137">
+        <v>136</v>
+      </c>
+      <c r="K86" s="137">
+        <v>100</v>
+      </c>
+      <c r="L86" s="137">
+        <v>25</v>
+      </c>
+      <c r="M86" s="137">
+        <v>23</v>
+      </c>
+      <c r="N86" s="137">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A87" s="134" t="s">
+        <v>17</v>
+      </c>
+      <c r="B87" s="135">
+        <v>518</v>
+      </c>
+      <c r="C87" s="135">
+        <v>21</v>
+      </c>
+      <c r="D87" s="135">
+        <v>7</v>
+      </c>
+      <c r="E87" s="135">
+        <v>4</v>
+      </c>
+      <c r="F87" s="135">
+        <v>10</v>
+      </c>
+      <c r="G87" s="135">
+        <v>41</v>
+      </c>
+      <c r="H87" s="135">
+        <v>108</v>
+      </c>
+      <c r="I87" s="135">
+        <v>92</v>
+      </c>
+      <c r="J87" s="135">
+        <v>102</v>
+      </c>
+      <c r="K87" s="135">
+        <v>78</v>
+      </c>
+      <c r="L87" s="135">
+        <v>21</v>
+      </c>
+      <c r="M87" s="135">
+        <v>20</v>
+      </c>
+      <c r="N87" s="135">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A88" s="134" t="s">
+        <v>21</v>
+      </c>
+      <c r="B88" s="135">
+        <v>46</v>
+      </c>
+      <c r="C88" s="135">
+        <v>0</v>
+      </c>
+      <c r="D88" s="135">
+        <v>2</v>
+      </c>
+      <c r="E88" s="135">
+        <v>0</v>
+      </c>
+      <c r="F88" s="135">
+        <v>3</v>
+      </c>
+      <c r="G88" s="135">
+        <v>9</v>
+      </c>
+      <c r="H88" s="135">
+        <v>9</v>
+      </c>
+      <c r="I88" s="135">
+        <v>9</v>
+      </c>
+      <c r="J88" s="135">
+        <v>5</v>
+      </c>
+      <c r="K88" s="135">
+        <v>7</v>
+      </c>
+      <c r="L88" s="135">
+        <v>1</v>
+      </c>
+      <c r="M88" s="135">
+        <v>0</v>
+      </c>
+      <c r="N88" s="135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A89" s="134" t="s">
+        <v>22</v>
+      </c>
+      <c r="B89" s="135">
+        <v>154</v>
+      </c>
+      <c r="C89" s="135">
+        <v>3</v>
+      </c>
+      <c r="D89" s="135">
+        <v>3</v>
+      </c>
+      <c r="E89" s="135">
+        <v>2</v>
+      </c>
+      <c r="F89" s="135">
+        <v>8</v>
+      </c>
+      <c r="G89" s="135">
+        <v>23</v>
+      </c>
+      <c r="H89" s="135">
+        <v>60</v>
+      </c>
+      <c r="I89" s="135">
+        <v>32</v>
+      </c>
+      <c r="J89" s="135">
+        <v>14</v>
+      </c>
+      <c r="K89" s="135">
+        <v>5</v>
+      </c>
+      <c r="L89" s="135">
+        <v>1</v>
+      </c>
+      <c r="M89" s="135">
+        <v>1</v>
+      </c>
+      <c r="N89" s="135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A90" s="134" t="s">
+        <v>23</v>
+      </c>
+      <c r="B90" s="135">
+        <v>98</v>
+      </c>
+      <c r="C90" s="135">
+        <v>2</v>
+      </c>
+      <c r="D90" s="135">
+        <v>1</v>
+      </c>
+      <c r="E90" s="135">
+        <v>2</v>
+      </c>
+      <c r="F90" s="135">
+        <v>2</v>
+      </c>
+      <c r="G90" s="135">
+        <v>10</v>
+      </c>
+      <c r="H90" s="135">
+        <v>30</v>
+      </c>
+      <c r="I90" s="135">
+        <v>20</v>
+      </c>
+      <c r="J90" s="135">
+        <v>15</v>
+      </c>
+      <c r="K90" s="135">
+        <v>10</v>
+      </c>
+      <c r="L90" s="135">
+        <v>2</v>
+      </c>
+      <c r="M90" s="135">
+        <v>2</v>
+      </c>
+      <c r="N90" s="135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A91" s="138" t="s">
+        <v>102</v>
+      </c>
+      <c r="B91" s="137">
+        <v>4333</v>
+      </c>
+      <c r="C91" s="137">
+        <v>108</v>
+      </c>
+      <c r="D91" s="137">
+        <v>122</v>
+      </c>
+      <c r="E91" s="137">
+        <v>135</v>
+      </c>
+      <c r="F91" s="137">
+        <v>227</v>
+      </c>
+      <c r="G91" s="137">
+        <v>643</v>
+      </c>
+      <c r="H91" s="137">
+        <v>1100</v>
+      </c>
+      <c r="I91" s="137">
+        <v>868</v>
+      </c>
+      <c r="J91" s="137">
+        <v>545</v>
+      </c>
+      <c r="K91" s="137">
+        <v>258</v>
+      </c>
+      <c r="L91" s="137">
+        <v>155</v>
+      </c>
+      <c r="M91" s="137">
+        <v>121</v>
+      </c>
+      <c r="N91" s="137">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A92" s="134" t="s">
+        <v>25</v>
+      </c>
+      <c r="B92" s="135">
+        <v>1231</v>
+      </c>
+      <c r="C92" s="135">
+        <v>24</v>
+      </c>
+      <c r="D92" s="135">
+        <v>37</v>
+      </c>
+      <c r="E92" s="135">
+        <v>35</v>
+      </c>
+      <c r="F92" s="135">
+        <v>80</v>
+      </c>
+      <c r="G92" s="135">
+        <v>181</v>
+      </c>
+      <c r="H92" s="135">
+        <v>314</v>
+      </c>
+      <c r="I92" s="135">
+        <v>240</v>
+      </c>
+      <c r="J92" s="135">
+        <v>173</v>
+      </c>
+      <c r="K92" s="135">
+        <v>75</v>
+      </c>
+      <c r="L92" s="135">
+        <v>42</v>
+      </c>
+      <c r="M92" s="135">
+        <v>23</v>
+      </c>
+      <c r="N92" s="135">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A93" s="134" t="s">
+        <v>26</v>
+      </c>
+      <c r="B93" s="135">
+        <v>1249</v>
+      </c>
+      <c r="C93" s="135">
+        <v>27</v>
+      </c>
+      <c r="D93" s="135">
+        <v>31</v>
+      </c>
+      <c r="E93" s="135">
+        <v>30</v>
+      </c>
+      <c r="F93" s="135">
+        <v>68</v>
+      </c>
+      <c r="G93" s="135">
+        <v>176</v>
+      </c>
+      <c r="H93" s="135">
+        <v>300</v>
+      </c>
+      <c r="I93" s="135">
+        <v>293</v>
+      </c>
+      <c r="J93" s="135">
+        <v>147</v>
+      </c>
+      <c r="K93" s="135">
+        <v>73</v>
+      </c>
+      <c r="L93" s="135">
+        <v>45</v>
+      </c>
+      <c r="M93" s="135">
+        <v>38</v>
+      </c>
+      <c r="N93" s="135">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A94" s="134" t="s">
+        <v>27</v>
+      </c>
+      <c r="B94" s="135">
+        <v>841</v>
+      </c>
+      <c r="C94" s="135">
+        <v>16</v>
+      </c>
+      <c r="D94" s="135">
+        <v>13</v>
+      </c>
+      <c r="E94" s="135">
+        <v>22</v>
+      </c>
+      <c r="F94" s="135">
+        <v>49</v>
+      </c>
+      <c r="G94" s="135">
+        <v>149</v>
+      </c>
+      <c r="H94" s="135">
+        <v>224</v>
+      </c>
+      <c r="I94" s="135">
+        <v>177</v>
+      </c>
+      <c r="J94" s="135">
+        <v>100</v>
+      </c>
+      <c r="K94" s="135">
+        <v>44</v>
+      </c>
+      <c r="L94" s="135">
+        <v>27</v>
+      </c>
+      <c r="M94" s="135">
+        <v>14</v>
+      </c>
+      <c r="N94" s="135">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A95" s="134" t="s">
+        <v>28</v>
+      </c>
+      <c r="B95" s="135">
+        <v>666</v>
+      </c>
+      <c r="C95" s="135">
+        <v>34</v>
+      </c>
+      <c r="D95" s="135">
+        <v>36</v>
+      </c>
+      <c r="E95" s="135">
+        <v>47</v>
+      </c>
+      <c r="F95" s="135">
+        <v>24</v>
+      </c>
+      <c r="G95" s="135">
+        <v>91</v>
+      </c>
+      <c r="H95" s="135">
+        <v>148</v>
+      </c>
+      <c r="I95" s="135">
+        <v>98</v>
+      </c>
+      <c r="J95" s="135">
+        <v>73</v>
+      </c>
+      <c r="K95" s="135">
+        <v>43</v>
+      </c>
+      <c r="L95" s="135">
+        <v>31</v>
+      </c>
+      <c r="M95" s="135">
+        <v>27</v>
+      </c>
+      <c r="N95" s="135">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A96" s="134" t="s">
+        <v>29</v>
+      </c>
+      <c r="B96" s="135">
+        <v>346</v>
+      </c>
+      <c r="C96" s="135">
+        <v>7</v>
+      </c>
+      <c r="D96" s="135">
+        <v>5</v>
+      </c>
+      <c r="E96" s="135">
+        <v>1</v>
+      </c>
+      <c r="F96" s="135">
+        <v>6</v>
+      </c>
+      <c r="G96" s="135">
+        <v>46</v>
+      </c>
+      <c r="H96" s="135">
+        <v>114</v>
+      </c>
+      <c r="I96" s="135">
+        <v>60</v>
+      </c>
+      <c r="J96" s="135">
+        <v>52</v>
+      </c>
+      <c r="K96" s="135">
+        <v>23</v>
+      </c>
+      <c r="L96" s="135">
+        <v>10</v>
+      </c>
+      <c r="M96" s="135">
+        <v>19</v>
+      </c>
+      <c r="N96" s="135">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A97" s="138" t="s">
+        <v>106</v>
+      </c>
+      <c r="B97" s="137">
+        <v>6031</v>
+      </c>
+      <c r="C97" s="137">
+        <v>105</v>
+      </c>
+      <c r="D97" s="137">
+        <v>134</v>
+      </c>
+      <c r="E97" s="137">
+        <v>151</v>
+      </c>
+      <c r="F97" s="137">
+        <v>320</v>
+      </c>
+      <c r="G97" s="137">
+        <v>804</v>
+      </c>
+      <c r="H97" s="137">
+        <v>1443</v>
+      </c>
+      <c r="I97" s="137">
+        <v>1316</v>
+      </c>
+      <c r="J97" s="137">
+        <v>903</v>
+      </c>
+      <c r="K97" s="137">
+        <v>404</v>
+      </c>
+      <c r="L97" s="137">
+        <v>209</v>
+      </c>
+      <c r="M97" s="137">
+        <v>170</v>
+      </c>
+      <c r="N97" s="137">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A98" s="134" t="s">
+        <v>31</v>
+      </c>
+      <c r="B98" s="135">
+        <v>1325</v>
+      </c>
+      <c r="C98" s="135">
+        <v>15</v>
+      </c>
+      <c r="D98" s="135">
+        <v>26</v>
+      </c>
+      <c r="E98" s="135">
+        <v>23</v>
+      </c>
+      <c r="F98" s="135">
+        <v>48</v>
+      </c>
+      <c r="G98" s="135">
+        <v>141</v>
+      </c>
+      <c r="H98" s="135">
+        <v>323</v>
+      </c>
+      <c r="I98" s="135">
+        <v>279</v>
+      </c>
+      <c r="J98" s="135">
+        <v>214</v>
+      </c>
+      <c r="K98" s="135">
+        <v>108</v>
+      </c>
+      <c r="L98" s="135">
+        <v>60</v>
+      </c>
+      <c r="M98" s="135">
+        <v>58</v>
+      </c>
+      <c r="N98" s="135">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A99" s="134" t="s">
+        <v>32</v>
+      </c>
+      <c r="B99" s="135">
+        <v>2631</v>
+      </c>
+      <c r="C99" s="135">
+        <v>52</v>
+      </c>
+      <c r="D99" s="135">
+        <v>67</v>
+      </c>
+      <c r="E99" s="135">
+        <v>76</v>
+      </c>
+      <c r="F99" s="135">
+        <v>147</v>
+      </c>
+      <c r="G99" s="135">
+        <v>393</v>
+      </c>
+      <c r="H99" s="135">
+        <v>635</v>
+      </c>
+      <c r="I99" s="135">
+        <v>555</v>
+      </c>
+      <c r="J99" s="135">
+        <v>372</v>
+      </c>
+      <c r="K99" s="135">
+        <v>156</v>
+      </c>
+      <c r="L99" s="135">
+        <v>93</v>
+      </c>
+      <c r="M99" s="135">
+        <v>65</v>
+      </c>
+      <c r="N99" s="135">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A100" s="134" t="s">
+        <v>33</v>
+      </c>
+      <c r="B100" s="135">
+        <v>1883</v>
+      </c>
+      <c r="C100" s="135">
+        <v>34</v>
+      </c>
+      <c r="D100" s="135">
+        <v>34</v>
+      </c>
+      <c r="E100" s="135">
+        <v>50</v>
+      </c>
+      <c r="F100" s="135">
+        <v>97</v>
+      </c>
+      <c r="G100" s="135">
+        <v>256</v>
+      </c>
+      <c r="H100" s="135">
+        <v>457</v>
+      </c>
+      <c r="I100" s="135">
+        <v>449</v>
+      </c>
+      <c r="J100" s="135">
+        <v>296</v>
+      </c>
+      <c r="K100" s="135">
+        <v>122</v>
+      </c>
+      <c r="L100" s="135">
+        <v>44</v>
+      </c>
+      <c r="M100" s="135">
+        <v>32</v>
+      </c>
+      <c r="N100" s="135">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A101" s="139" t="s">
+        <v>34</v>
+      </c>
+      <c r="B101" s="140">
+        <v>192</v>
+      </c>
+      <c r="C101" s="140">
+        <v>4</v>
+      </c>
+      <c r="D101" s="140">
+        <v>7</v>
+      </c>
+      <c r="E101" s="140">
+        <v>2</v>
+      </c>
+      <c r="F101" s="140">
+        <v>28</v>
+      </c>
+      <c r="G101" s="140">
+        <v>14</v>
+      </c>
+      <c r="H101" s="140">
+        <v>28</v>
+      </c>
+      <c r="I101" s="140">
+        <v>33</v>
+      </c>
+      <c r="J101" s="140">
+        <v>21</v>
+      </c>
+      <c r="K101" s="140">
+        <v>18</v>
+      </c>
+      <c r="L101" s="140">
+        <v>12</v>
+      </c>
+      <c r="M101" s="140">
+        <v>15</v>
+      </c>
+      <c r="N101" s="140">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/dengue_data.xlsx
+++ b/dengue_data.xlsx
@@ -3709,7 +3709,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4099,36 +4099,6 @@
     <xf numFmtId="1" fontId="13" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4140,6 +4110,15 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -34687,43 +34666,43 @@
       <c r="A57" s="125" t="s">
         <v>383</v>
       </c>
-      <c r="B57" s="131">
+      <c r="B57" s="135">
         <v>17758</v>
       </c>
-      <c r="C57" s="131">
+      <c r="C57" s="135">
         <v>290</v>
       </c>
-      <c r="D57" s="131">
+      <c r="D57" s="135">
         <v>263</v>
       </c>
-      <c r="E57" s="131">
+      <c r="E57" s="135">
         <v>622</v>
       </c>
-      <c r="F57" s="131">
+      <c r="F57" s="135">
         <v>948</v>
       </c>
-      <c r="G57" s="131">
+      <c r="G57" s="135">
         <v>2102</v>
       </c>
-      <c r="H57" s="131">
+      <c r="H57" s="135">
         <v>4160</v>
       </c>
-      <c r="I57" s="131">
+      <c r="I57" s="135">
         <v>3164</v>
       </c>
-      <c r="J57" s="131">
+      <c r="J57" s="135">
         <v>2457</v>
       </c>
-      <c r="K57" s="131">
+      <c r="K57" s="135">
         <v>1978</v>
       </c>
-      <c r="L57" s="131">
+      <c r="L57" s="135">
         <v>1001</v>
       </c>
-      <c r="M57" s="131">
+      <c r="M57" s="135">
         <v>490</v>
       </c>
-      <c r="N57" s="131">
+      <c r="N57" s="135">
         <v>283</v>
       </c>
     </row>
@@ -34731,35 +34710,35 @@
       <c r="A58" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B58" s="132"/>
-      <c r="C58" s="132"/>
-      <c r="D58" s="132"/>
-      <c r="E58" s="132"/>
-      <c r="F58" s="132"/>
-      <c r="G58" s="132"/>
-      <c r="H58" s="132"/>
-      <c r="I58" s="132"/>
-      <c r="J58" s="132"/>
-      <c r="K58" s="132"/>
-      <c r="L58" s="132"/>
-      <c r="M58" s="132"/>
-      <c r="N58" s="132"/>
+      <c r="B58" s="136"/>
+      <c r="C58" s="136"/>
+      <c r="D58" s="136"/>
+      <c r="E58" s="136"/>
+      <c r="F58" s="136"/>
+      <c r="G58" s="136"/>
+      <c r="H58" s="136"/>
+      <c r="I58" s="136"/>
+      <c r="J58" s="136"/>
+      <c r="K58" s="136"/>
+      <c r="L58" s="136"/>
+      <c r="M58" s="136"/>
+      <c r="N58" s="136"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" s="9"/>
-      <c r="B59" s="133"/>
-      <c r="C59" s="133"/>
-      <c r="D59" s="133"/>
-      <c r="E59" s="133"/>
-      <c r="F59" s="133"/>
-      <c r="G59" s="133"/>
-      <c r="H59" s="133"/>
-      <c r="I59" s="133"/>
-      <c r="J59" s="133"/>
-      <c r="K59" s="133"/>
-      <c r="L59" s="133"/>
-      <c r="M59" s="133"/>
-      <c r="N59" s="133"/>
+      <c r="B59" s="137"/>
+      <c r="C59" s="137"/>
+      <c r="D59" s="137"/>
+      <c r="E59" s="137"/>
+      <c r="F59" s="137"/>
+      <c r="G59" s="137"/>
+      <c r="H59" s="137"/>
+      <c r="I59" s="137"/>
+      <c r="J59" s="137"/>
+      <c r="K59" s="137"/>
+      <c r="L59" s="137"/>
+      <c r="M59" s="137"/>
+      <c r="N59" s="137"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
@@ -36699,12 +36678,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="G57:G59"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="F57:F59"/>
     <mergeCell ref="N57:N59"/>
     <mergeCell ref="H57:H59"/>
     <mergeCell ref="I57:I59"/>
@@ -36712,6 +36685,12 @@
     <mergeCell ref="K57:K59"/>
     <mergeCell ref="L57:L59"/>
     <mergeCell ref="M57:M59"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="F57:F59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -52305,2114 +52284,2114 @@
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A54" s="141" t="s">
+      <c r="A54" s="131" t="s">
         <v>68</v>
       </c>
-      <c r="B54" s="142">
+      <c r="B54" s="132">
         <v>15830</v>
       </c>
-      <c r="C54" s="142">
+      <c r="C54" s="132">
         <v>225</v>
       </c>
-      <c r="D54" s="142">
+      <c r="D54" s="132">
         <v>160</v>
       </c>
-      <c r="E54" s="142">
+      <c r="E54" s="132">
         <v>289</v>
       </c>
-      <c r="F54" s="142">
+      <c r="F54" s="132">
         <v>447</v>
       </c>
-      <c r="G54" s="142">
+      <c r="G54" s="132">
         <v>1704</v>
       </c>
-      <c r="H54" s="142">
+      <c r="H54" s="132">
         <v>3304</v>
       </c>
-      <c r="I54" s="142">
+      <c r="I54" s="132">
         <v>3506</v>
       </c>
-      <c r="J54" s="142">
+      <c r="J54" s="132">
         <v>3003</v>
       </c>
-      <c r="K54" s="142">
+      <c r="K54" s="132">
         <v>1726</v>
       </c>
-      <c r="L54" s="142">
+      <c r="L54" s="132">
         <v>719</v>
       </c>
-      <c r="M54" s="142">
+      <c r="M54" s="132">
         <v>502</v>
       </c>
-      <c r="N54" s="142">
+      <c r="N54" s="132">
         <v>245</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A55" s="136" t="s">
+      <c r="A55" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="B55" s="137">
+      <c r="B55" s="46">
         <v>761</v>
       </c>
-      <c r="C55" s="137">
+      <c r="C55" s="46">
         <v>10</v>
       </c>
-      <c r="D55" s="137">
+      <c r="D55" s="46">
         <v>11</v>
       </c>
-      <c r="E55" s="137">
+      <c r="E55" s="46">
         <v>8</v>
       </c>
-      <c r="F55" s="137">
+      <c r="F55" s="46">
         <v>16</v>
       </c>
-      <c r="G55" s="137">
+      <c r="G55" s="46">
         <v>80</v>
       </c>
-      <c r="H55" s="137">
+      <c r="H55" s="46">
         <v>191</v>
       </c>
-      <c r="I55" s="137">
+      <c r="I55" s="46">
         <v>185</v>
       </c>
-      <c r="J55" s="137">
+      <c r="J55" s="46">
         <v>110</v>
       </c>
-      <c r="K55" s="137">
+      <c r="K55" s="46">
         <v>90</v>
       </c>
-      <c r="L55" s="137">
+      <c r="L55" s="46">
         <v>29</v>
       </c>
-      <c r="M55" s="137">
+      <c r="M55" s="46">
         <v>24</v>
       </c>
-      <c r="N55" s="137">
+      <c r="N55" s="46">
         <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A56" s="143" t="s">
+      <c r="A56" s="133" t="s">
         <v>141</v>
       </c>
-      <c r="B56" s="144">
+      <c r="B56" s="134">
         <v>54</v>
       </c>
-      <c r="C56" s="144">
+      <c r="C56" s="134">
         <v>1</v>
       </c>
-      <c r="D56" s="144">
+      <c r="D56" s="134">
         <v>1</v>
       </c>
-      <c r="E56" s="144">
+      <c r="E56" s="134">
         <v>0</v>
       </c>
-      <c r="F56" s="144">
+      <c r="F56" s="134">
         <v>0</v>
       </c>
-      <c r="G56" s="144">
+      <c r="G56" s="134">
         <v>3</v>
       </c>
-      <c r="H56" s="144">
+      <c r="H56" s="134">
         <v>14</v>
       </c>
-      <c r="I56" s="144">
+      <c r="I56" s="134">
         <v>12</v>
       </c>
-      <c r="J56" s="144">
+      <c r="J56" s="134">
         <v>8</v>
       </c>
-      <c r="K56" s="144">
+      <c r="K56" s="134">
         <v>10</v>
       </c>
-      <c r="L56" s="144">
+      <c r="L56" s="134">
         <v>3</v>
       </c>
-      <c r="M56" s="144">
+      <c r="M56" s="134">
         <v>2</v>
       </c>
-      <c r="N56" s="144">
+      <c r="N56" s="134">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A57" s="134" t="s">
+      <c r="A57" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="B57" s="135">
+      <c r="B57" s="44">
         <v>311</v>
       </c>
-      <c r="C57" s="135">
+      <c r="C57" s="44">
         <v>1</v>
       </c>
-      <c r="D57" s="135">
+      <c r="D57" s="44">
         <v>7</v>
       </c>
-      <c r="E57" s="135">
+      <c r="E57" s="44">
         <v>5</v>
       </c>
-      <c r="F57" s="135">
+      <c r="F57" s="44">
         <v>11</v>
       </c>
-      <c r="G57" s="135">
+      <c r="G57" s="44">
         <v>45</v>
       </c>
-      <c r="H57" s="135">
+      <c r="H57" s="44">
         <v>68</v>
       </c>
-      <c r="I57" s="135">
+      <c r="I57" s="44">
         <v>81</v>
       </c>
-      <c r="J57" s="135">
+      <c r="J57" s="44">
         <v>26</v>
       </c>
-      <c r="K57" s="135">
+      <c r="K57" s="44">
         <v>36</v>
       </c>
-      <c r="L57" s="135">
+      <c r="L57" s="44">
         <v>16</v>
       </c>
-      <c r="M57" s="135">
+      <c r="M57" s="44">
         <v>10</v>
       </c>
-      <c r="N57" s="135">
+      <c r="N57" s="44">
         <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A58" s="134" t="s">
+      <c r="A58" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="B58" s="135">
+      <c r="B58" s="44">
         <v>94</v>
       </c>
-      <c r="C58" s="135">
+      <c r="C58" s="44">
         <v>1</v>
       </c>
-      <c r="D58" s="135">
+      <c r="D58" s="44">
         <v>1</v>
       </c>
-      <c r="E58" s="135">
+      <c r="E58" s="44">
         <v>3</v>
       </c>
-      <c r="F58" s="135">
+      <c r="F58" s="44">
         <v>3</v>
       </c>
-      <c r="G58" s="135">
+      <c r="G58" s="44">
         <v>13</v>
       </c>
-      <c r="H58" s="135">
+      <c r="H58" s="44">
         <v>34</v>
       </c>
-      <c r="I58" s="135">
+      <c r="I58" s="44">
         <v>23</v>
       </c>
-      <c r="J58" s="135">
+      <c r="J58" s="44">
         <v>13</v>
       </c>
-      <c r="K58" s="135">
+      <c r="K58" s="44">
         <v>3</v>
       </c>
-      <c r="L58" s="135">
+      <c r="L58" s="44">
         <v>0</v>
       </c>
-      <c r="M58" s="135">
+      <c r="M58" s="44">
         <v>0</v>
       </c>
-      <c r="N58" s="135">
+      <c r="N58" s="44">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A59" s="134" t="s">
+      <c r="A59" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="B59" s="135">
+      <c r="B59" s="44">
         <v>154</v>
       </c>
-      <c r="C59" s="135">
+      <c r="C59" s="44">
         <v>5</v>
       </c>
-      <c r="D59" s="135">
+      <c r="D59" s="44">
         <v>1</v>
       </c>
-      <c r="E59" s="135">
+      <c r="E59" s="44">
         <v>0</v>
       </c>
-      <c r="F59" s="135">
+      <c r="F59" s="44">
         <v>1</v>
       </c>
-      <c r="G59" s="135">
+      <c r="G59" s="44">
         <v>5</v>
       </c>
-      <c r="H59" s="135">
+      <c r="H59" s="44">
         <v>44</v>
       </c>
-      <c r="I59" s="135">
+      <c r="I59" s="44">
         <v>38</v>
       </c>
-      <c r="J59" s="135">
+      <c r="J59" s="44">
         <v>31</v>
       </c>
-      <c r="K59" s="135">
+      <c r="K59" s="44">
         <v>21</v>
       </c>
-      <c r="L59" s="135">
+      <c r="L59" s="44">
         <v>2</v>
       </c>
-      <c r="M59" s="135">
+      <c r="M59" s="44">
         <v>6</v>
       </c>
-      <c r="N59" s="135">
+      <c r="N59" s="44">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A60" s="134" t="s">
+      <c r="A60" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="B60" s="135">
+      <c r="B60" s="44">
         <v>148</v>
       </c>
-      <c r="C60" s="135">
+      <c r="C60" s="44">
         <v>2</v>
       </c>
-      <c r="D60" s="135">
+      <c r="D60" s="44">
         <v>1</v>
       </c>
-      <c r="E60" s="135">
+      <c r="E60" s="44">
         <v>0</v>
       </c>
-      <c r="F60" s="135">
+      <c r="F60" s="44">
         <v>1</v>
       </c>
-      <c r="G60" s="135">
+      <c r="G60" s="44">
         <v>14</v>
       </c>
-      <c r="H60" s="135">
+      <c r="H60" s="44">
         <v>31</v>
       </c>
-      <c r="I60" s="135">
+      <c r="I60" s="44">
         <v>31</v>
       </c>
-      <c r="J60" s="135">
+      <c r="J60" s="44">
         <v>32</v>
       </c>
-      <c r="K60" s="135">
+      <c r="K60" s="44">
         <v>20</v>
       </c>
-      <c r="L60" s="135">
+      <c r="L60" s="44">
         <v>8</v>
       </c>
-      <c r="M60" s="135">
+      <c r="M60" s="44">
         <v>6</v>
       </c>
-      <c r="N60" s="135">
+      <c r="N60" s="44">
         <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A61" s="138" t="s">
+      <c r="A61" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="B61" s="137">
+      <c r="B61" s="46">
         <v>438</v>
       </c>
-      <c r="C61" s="137">
+      <c r="C61" s="46">
         <v>1</v>
       </c>
-      <c r="D61" s="137">
+      <c r="D61" s="46">
         <v>3</v>
       </c>
-      <c r="E61" s="137">
+      <c r="E61" s="46">
         <v>6</v>
       </c>
-      <c r="F61" s="137">
+      <c r="F61" s="46">
         <v>10</v>
       </c>
-      <c r="G61" s="137">
+      <c r="G61" s="46">
         <v>54</v>
       </c>
-      <c r="H61" s="137">
+      <c r="H61" s="46">
         <v>112</v>
       </c>
-      <c r="I61" s="137">
+      <c r="I61" s="46">
         <v>113</v>
       </c>
-      <c r="J61" s="137">
+      <c r="J61" s="46">
         <v>69</v>
       </c>
-      <c r="K61" s="137">
+      <c r="K61" s="46">
         <v>39</v>
       </c>
-      <c r="L61" s="137">
+      <c r="L61" s="46">
         <v>21</v>
       </c>
-      <c r="M61" s="137">
+      <c r="M61" s="46">
         <v>3</v>
       </c>
-      <c r="N61" s="137">
+      <c r="N61" s="46">
         <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A62" s="134" t="s">
+      <c r="A62" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="B62" s="135">
+      <c r="B62" s="44">
         <v>112</v>
       </c>
-      <c r="C62" s="135">
+      <c r="C62" s="44">
         <v>0</v>
       </c>
-      <c r="D62" s="135">
+      <c r="D62" s="44">
         <v>1</v>
       </c>
-      <c r="E62" s="135">
+      <c r="E62" s="44">
         <v>6</v>
       </c>
-      <c r="F62" s="135">
+      <c r="F62" s="44">
         <v>4</v>
       </c>
-      <c r="G62" s="135">
+      <c r="G62" s="44">
         <v>11</v>
       </c>
-      <c r="H62" s="135">
+      <c r="H62" s="44">
         <v>32</v>
       </c>
-      <c r="I62" s="135">
+      <c r="I62" s="44">
         <v>37</v>
       </c>
-      <c r="J62" s="135">
+      <c r="J62" s="44">
         <v>12</v>
       </c>
-      <c r="K62" s="135">
+      <c r="K62" s="44">
         <v>7</v>
       </c>
-      <c r="L62" s="135">
+      <c r="L62" s="44">
         <v>2</v>
       </c>
-      <c r="M62" s="135">
+      <c r="M62" s="44">
         <v>0</v>
       </c>
-      <c r="N62" s="135">
+      <c r="N62" s="44">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A63" s="134" t="s">
+      <c r="A63" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="B63" s="135">
+      <c r="B63" s="44">
         <v>233</v>
       </c>
-      <c r="C63" s="135">
+      <c r="C63" s="44">
         <v>1</v>
       </c>
-      <c r="D63" s="135">
+      <c r="D63" s="44">
         <v>2</v>
       </c>
-      <c r="E63" s="135">
+      <c r="E63" s="44">
         <v>0</v>
       </c>
-      <c r="F63" s="135">
+      <c r="F63" s="44">
         <v>3</v>
       </c>
-      <c r="G63" s="135">
+      <c r="G63" s="44">
         <v>30</v>
       </c>
-      <c r="H63" s="135">
+      <c r="H63" s="44">
         <v>51</v>
       </c>
-      <c r="I63" s="135">
+      <c r="I63" s="44">
         <v>58</v>
       </c>
-      <c r="J63" s="135">
+      <c r="J63" s="44">
         <v>39</v>
       </c>
-      <c r="K63" s="135">
+      <c r="K63" s="44">
         <v>28</v>
       </c>
-      <c r="L63" s="135">
+      <c r="L63" s="44">
         <v>13</v>
       </c>
-      <c r="M63" s="135">
+      <c r="M63" s="44">
         <v>3</v>
       </c>
-      <c r="N63" s="135">
+      <c r="N63" s="44">
         <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A64" s="134" t="s">
+      <c r="A64" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="B64" s="135">
+      <c r="B64" s="44">
         <v>93</v>
       </c>
-      <c r="C64" s="135">
+      <c r="C64" s="44">
         <v>0</v>
       </c>
-      <c r="D64" s="135">
+      <c r="D64" s="44">
         <v>0</v>
       </c>
-      <c r="E64" s="135">
+      <c r="E64" s="44">
         <v>0</v>
       </c>
-      <c r="F64" s="135">
+      <c r="F64" s="44">
         <v>3</v>
       </c>
-      <c r="G64" s="135">
+      <c r="G64" s="44">
         <v>13</v>
       </c>
-      <c r="H64" s="135">
+      <c r="H64" s="44">
         <v>29</v>
       </c>
-      <c r="I64" s="135">
+      <c r="I64" s="44">
         <v>18</v>
       </c>
-      <c r="J64" s="135">
+      <c r="J64" s="44">
         <v>18</v>
       </c>
-      <c r="K64" s="135">
+      <c r="K64" s="44">
         <v>4</v>
       </c>
-      <c r="L64" s="135">
+      <c r="L64" s="44">
         <v>6</v>
       </c>
-      <c r="M64" s="135">
+      <c r="M64" s="44">
         <v>0</v>
       </c>
-      <c r="N64" s="135">
+      <c r="N64" s="44">
         <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A65" s="138" t="s">
+      <c r="A65" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="B65" s="137">
+      <c r="B65" s="46">
         <v>3827</v>
       </c>
-      <c r="C65" s="137">
+      <c r="C65" s="46">
         <v>39</v>
       </c>
-      <c r="D65" s="137">
+      <c r="D65" s="46">
         <v>31</v>
       </c>
-      <c r="E65" s="137">
+      <c r="E65" s="46">
         <v>44</v>
       </c>
-      <c r="F65" s="137">
+      <c r="F65" s="46">
         <v>81</v>
       </c>
-      <c r="G65" s="137">
+      <c r="G65" s="46">
         <v>365</v>
       </c>
-      <c r="H65" s="137">
+      <c r="H65" s="46">
         <v>744</v>
       </c>
-      <c r="I65" s="137">
+      <c r="I65" s="46">
         <v>912</v>
       </c>
-      <c r="J65" s="137">
+      <c r="J65" s="46">
         <v>773</v>
       </c>
-      <c r="K65" s="137">
+      <c r="K65" s="46">
         <v>439</v>
       </c>
-      <c r="L65" s="137">
+      <c r="L65" s="46">
         <v>202</v>
       </c>
-      <c r="M65" s="137">
+      <c r="M65" s="46">
         <v>126</v>
       </c>
-      <c r="N65" s="137">
+      <c r="N65" s="46">
         <v>71</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A66" s="134" t="s">
+      <c r="A66" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="B66" s="135">
+      <c r="B66" s="44">
         <v>238</v>
       </c>
-      <c r="C66" s="135">
+      <c r="C66" s="44">
         <v>7</v>
       </c>
-      <c r="D66" s="135">
+      <c r="D66" s="44">
         <v>1</v>
       </c>
-      <c r="E66" s="135">
+      <c r="E66" s="44">
         <v>4</v>
       </c>
-      <c r="F66" s="135">
+      <c r="F66" s="44">
         <v>7</v>
       </c>
-      <c r="G66" s="135">
+      <c r="G66" s="44">
         <v>26</v>
       </c>
-      <c r="H66" s="135">
+      <c r="H66" s="44">
         <v>42</v>
       </c>
-      <c r="I66" s="135">
+      <c r="I66" s="44">
         <v>72</v>
       </c>
-      <c r="J66" s="135">
+      <c r="J66" s="44">
         <v>42</v>
       </c>
-      <c r="K66" s="135">
+      <c r="K66" s="44">
         <v>17</v>
       </c>
-      <c r="L66" s="135">
+      <c r="L66" s="44">
         <v>10</v>
       </c>
-      <c r="M66" s="135">
+      <c r="M66" s="44">
         <v>3</v>
       </c>
-      <c r="N66" s="135">
+      <c r="N66" s="44">
         <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A67" s="134" t="s">
+      <c r="A67" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="B67" s="135">
+      <c r="B67" s="44">
         <v>1261</v>
       </c>
-      <c r="C67" s="135">
+      <c r="C67" s="44">
         <v>14</v>
       </c>
-      <c r="D67" s="135">
+      <c r="D67" s="44">
         <v>13</v>
       </c>
-      <c r="E67" s="135">
+      <c r="E67" s="44">
         <v>6</v>
       </c>
-      <c r="F67" s="135">
+      <c r="F67" s="44">
         <v>30</v>
       </c>
-      <c r="G67" s="135">
+      <c r="G67" s="44">
         <v>127</v>
       </c>
-      <c r="H67" s="135">
+      <c r="H67" s="44">
         <v>241</v>
       </c>
-      <c r="I67" s="135">
+      <c r="I67" s="44">
         <v>311</v>
       </c>
-      <c r="J67" s="135">
+      <c r="J67" s="44">
         <v>197</v>
       </c>
-      <c r="K67" s="135">
+      <c r="K67" s="44">
         <v>141</v>
       </c>
-      <c r="L67" s="135">
+      <c r="L67" s="44">
         <v>86</v>
       </c>
-      <c r="M67" s="135">
+      <c r="M67" s="44">
         <v>49</v>
       </c>
-      <c r="N67" s="135">
+      <c r="N67" s="44">
         <v>46</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A68" s="134" t="s">
+      <c r="A68" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="B68" s="135">
+      <c r="B68" s="44">
         <v>601</v>
       </c>
-      <c r="C68" s="135">
+      <c r="C68" s="44">
         <v>9</v>
       </c>
-      <c r="D68" s="135">
+      <c r="D68" s="44">
         <v>5</v>
       </c>
-      <c r="E68" s="135">
+      <c r="E68" s="44">
         <v>11</v>
       </c>
-      <c r="F68" s="135">
+      <c r="F68" s="44">
         <v>9</v>
       </c>
-      <c r="G68" s="135">
+      <c r="G68" s="44">
         <v>49</v>
       </c>
-      <c r="H68" s="135">
+      <c r="H68" s="44">
         <v>82</v>
       </c>
-      <c r="I68" s="135">
+      <c r="I68" s="44">
         <v>145</v>
       </c>
-      <c r="J68" s="135">
+      <c r="J68" s="44">
         <v>111</v>
       </c>
-      <c r="K68" s="135">
+      <c r="K68" s="44">
         <v>105</v>
       </c>
-      <c r="L68" s="135">
+      <c r="L68" s="44">
         <v>40</v>
       </c>
-      <c r="M68" s="135">
+      <c r="M68" s="44">
         <v>29</v>
       </c>
-      <c r="N68" s="135">
+      <c r="N68" s="44">
         <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A69" s="134" t="s">
+      <c r="A69" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="B69" s="135">
+      <c r="B69" s="44">
         <v>1727</v>
       </c>
-      <c r="C69" s="135">
+      <c r="C69" s="44">
         <v>9</v>
       </c>
-      <c r="D69" s="135">
+      <c r="D69" s="44">
         <v>12</v>
       </c>
-      <c r="E69" s="135">
+      <c r="E69" s="44">
         <v>23</v>
       </c>
-      <c r="F69" s="135">
+      <c r="F69" s="44">
         <v>35</v>
       </c>
-      <c r="G69" s="135">
+      <c r="G69" s="44">
         <v>163</v>
       </c>
-      <c r="H69" s="135">
+      <c r="H69" s="44">
         <v>379</v>
       </c>
-      <c r="I69" s="135">
+      <c r="I69" s="44">
         <v>384</v>
       </c>
-      <c r="J69" s="135">
+      <c r="J69" s="44">
         <v>423</v>
       </c>
-      <c r="K69" s="135">
+      <c r="K69" s="44">
         <v>176</v>
       </c>
-      <c r="L69" s="135">
+      <c r="L69" s="44">
         <v>66</v>
       </c>
-      <c r="M69" s="135">
+      <c r="M69" s="44">
         <v>45</v>
       </c>
-      <c r="N69" s="135">
+      <c r="N69" s="44">
         <v>12</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A70" s="138" t="s">
+      <c r="A70" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="B70" s="137">
+      <c r="B70" s="46">
         <v>3610</v>
       </c>
-      <c r="C70" s="137">
+      <c r="C70" s="46">
         <v>37</v>
       </c>
-      <c r="D70" s="137">
+      <c r="D70" s="46">
         <v>41</v>
       </c>
-      <c r="E70" s="137">
+      <c r="E70" s="46">
         <v>63</v>
       </c>
-      <c r="F70" s="137">
+      <c r="F70" s="46">
         <v>129</v>
       </c>
-      <c r="G70" s="137">
+      <c r="G70" s="46">
         <v>541</v>
       </c>
-      <c r="H70" s="137">
+      <c r="H70" s="46">
         <v>791</v>
       </c>
-      <c r="I70" s="137">
+      <c r="I70" s="46">
         <v>806</v>
       </c>
-      <c r="J70" s="137">
+      <c r="J70" s="46">
         <v>643</v>
       </c>
-      <c r="K70" s="137">
+      <c r="K70" s="46">
         <v>329</v>
       </c>
-      <c r="L70" s="137">
+      <c r="L70" s="46">
         <v>134</v>
       </c>
-      <c r="M70" s="137">
+      <c r="M70" s="46">
         <v>64</v>
       </c>
-      <c r="N70" s="137">
+      <c r="N70" s="46">
         <v>32</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A71" s="134" t="s">
+      <c r="A71" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="B71" s="135">
+      <c r="B71" s="44">
         <v>309</v>
       </c>
-      <c r="C71" s="135">
+      <c r="C71" s="44">
         <v>5</v>
       </c>
-      <c r="D71" s="135">
+      <c r="D71" s="44">
         <v>2</v>
       </c>
-      <c r="E71" s="135">
+      <c r="E71" s="44">
         <v>7</v>
       </c>
-      <c r="F71" s="135">
+      <c r="F71" s="44">
         <v>8</v>
       </c>
-      <c r="G71" s="135">
+      <c r="G71" s="44">
         <v>65</v>
       </c>
-      <c r="H71" s="135">
+      <c r="H71" s="44">
         <v>63</v>
       </c>
-      <c r="I71" s="135">
+      <c r="I71" s="44">
         <v>97</v>
       </c>
-      <c r="J71" s="135">
+      <c r="J71" s="44">
         <v>30</v>
       </c>
-      <c r="K71" s="135">
+      <c r="K71" s="44">
         <v>19</v>
       </c>
-      <c r="L71" s="135">
+      <c r="L71" s="44">
         <v>3</v>
       </c>
-      <c r="M71" s="135">
+      <c r="M71" s="44">
         <v>7</v>
       </c>
-      <c r="N71" s="135">
+      <c r="N71" s="44">
         <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A72" s="134" t="s">
+      <c r="A72" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="B72" s="135">
+      <c r="B72" s="44">
         <v>2039</v>
       </c>
-      <c r="C72" s="135">
+      <c r="C72" s="44">
         <v>11</v>
       </c>
-      <c r="D72" s="135">
+      <c r="D72" s="44">
         <v>20</v>
       </c>
-      <c r="E72" s="135">
+      <c r="E72" s="44">
         <v>39</v>
       </c>
-      <c r="F72" s="135">
+      <c r="F72" s="44">
         <v>87</v>
       </c>
-      <c r="G72" s="135">
+      <c r="G72" s="44">
         <v>321</v>
       </c>
-      <c r="H72" s="135">
+      <c r="H72" s="44">
         <v>405</v>
       </c>
-      <c r="I72" s="135">
+      <c r="I72" s="44">
         <v>461</v>
       </c>
-      <c r="J72" s="135">
+      <c r="J72" s="44">
         <v>377</v>
       </c>
-      <c r="K72" s="135">
+      <c r="K72" s="44">
         <v>182</v>
       </c>
-      <c r="L72" s="135">
+      <c r="L72" s="44">
         <v>77</v>
       </c>
-      <c r="M72" s="135">
+      <c r="M72" s="44">
         <v>32</v>
       </c>
-      <c r="N72" s="135">
+      <c r="N72" s="44">
         <v>27</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A73" s="134" t="s">
+      <c r="A73" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="B73" s="135">
+      <c r="B73" s="44">
         <v>1088</v>
       </c>
-      <c r="C73" s="135">
+      <c r="C73" s="44">
         <v>20</v>
       </c>
-      <c r="D73" s="135">
+      <c r="D73" s="44">
         <v>19</v>
       </c>
-      <c r="E73" s="135">
+      <c r="E73" s="44">
         <v>16</v>
       </c>
-      <c r="F73" s="135">
+      <c r="F73" s="44">
         <v>29</v>
       </c>
-      <c r="G73" s="135">
+      <c r="G73" s="44">
         <v>137</v>
       </c>
-      <c r="H73" s="135">
+      <c r="H73" s="44">
         <v>288</v>
       </c>
-      <c r="I73" s="135">
+      <c r="I73" s="44">
         <v>208</v>
       </c>
-      <c r="J73" s="135">
+      <c r="J73" s="44">
         <v>190</v>
       </c>
-      <c r="K73" s="135">
+      <c r="K73" s="44">
         <v>112</v>
       </c>
-      <c r="L73" s="135">
+      <c r="L73" s="44">
         <v>44</v>
       </c>
-      <c r="M73" s="135">
+      <c r="M73" s="44">
         <v>23</v>
       </c>
-      <c r="N73" s="135">
+      <c r="N73" s="44">
         <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A74" s="134" t="s">
+      <c r="A74" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="B74" s="135">
+      <c r="B74" s="44">
         <v>174</v>
       </c>
-      <c r="C74" s="135">
+      <c r="C74" s="44">
         <v>1</v>
       </c>
-      <c r="D74" s="135">
+      <c r="D74" s="44">
         <v>0</v>
       </c>
-      <c r="E74" s="135">
+      <c r="E74" s="44">
         <v>1</v>
       </c>
-      <c r="F74" s="135">
+      <c r="F74" s="44">
         <v>5</v>
       </c>
-      <c r="G74" s="135">
+      <c r="G74" s="44">
         <v>18</v>
       </c>
-      <c r="H74" s="135">
+      <c r="H74" s="44">
         <v>35</v>
       </c>
-      <c r="I74" s="135">
+      <c r="I74" s="44">
         <v>40</v>
       </c>
-      <c r="J74" s="135">
+      <c r="J74" s="44">
         <v>46</v>
       </c>
-      <c r="K74" s="135">
+      <c r="K74" s="44">
         <v>16</v>
       </c>
-      <c r="L74" s="135">
+      <c r="L74" s="44">
         <v>10</v>
       </c>
-      <c r="M74" s="135">
+      <c r="M74" s="44">
         <v>2</v>
       </c>
-      <c r="N74" s="135">
+      <c r="N74" s="44">
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A75" s="138" t="s">
+      <c r="A75" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="B75" s="137">
+      <c r="B75" s="46">
         <v>7194</v>
       </c>
-      <c r="C75" s="137">
+      <c r="C75" s="46">
         <v>138</v>
       </c>
-      <c r="D75" s="137">
+      <c r="D75" s="46">
         <v>74</v>
       </c>
-      <c r="E75" s="137">
+      <c r="E75" s="46">
         <v>168</v>
       </c>
-      <c r="F75" s="137">
+      <c r="F75" s="46">
         <v>211</v>
       </c>
-      <c r="G75" s="137">
+      <c r="G75" s="46">
         <v>664</v>
       </c>
-      <c r="H75" s="137">
+      <c r="H75" s="46">
         <v>1466</v>
       </c>
-      <c r="I75" s="137">
+      <c r="I75" s="46">
         <v>1490</v>
       </c>
-      <c r="J75" s="137">
+      <c r="J75" s="46">
         <v>1408</v>
       </c>
-      <c r="K75" s="137">
+      <c r="K75" s="46">
         <v>829</v>
       </c>
-      <c r="L75" s="137">
+      <c r="L75" s="46">
         <v>333</v>
       </c>
-      <c r="M75" s="137">
+      <c r="M75" s="46">
         <v>285</v>
       </c>
-      <c r="N75" s="137">
+      <c r="N75" s="46">
         <v>128</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A76" s="134" t="s">
+      <c r="A76" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="B76" s="135">
+      <c r="B76" s="44">
         <v>1835</v>
       </c>
-      <c r="C76" s="135">
+      <c r="C76" s="44">
         <v>49</v>
       </c>
-      <c r="D76" s="135">
+      <c r="D76" s="44">
         <v>16</v>
       </c>
-      <c r="E76" s="135">
+      <c r="E76" s="44">
         <v>42</v>
       </c>
-      <c r="F76" s="135">
+      <c r="F76" s="44">
         <v>54</v>
       </c>
-      <c r="G76" s="135">
+      <c r="G76" s="44">
         <v>163</v>
       </c>
-      <c r="H76" s="135">
+      <c r="H76" s="44">
         <v>439</v>
       </c>
-      <c r="I76" s="135">
+      <c r="I76" s="44">
         <v>373</v>
       </c>
-      <c r="J76" s="135">
+      <c r="J76" s="44">
         <v>359</v>
       </c>
-      <c r="K76" s="135">
+      <c r="K76" s="44">
         <v>238</v>
       </c>
-      <c r="L76" s="135">
+      <c r="L76" s="44">
         <v>32</v>
       </c>
-      <c r="M76" s="135">
+      <c r="M76" s="44">
         <v>54</v>
       </c>
-      <c r="N76" s="135">
+      <c r="N76" s="44">
         <v>16</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A77" s="134" t="s">
+      <c r="A77" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="B77" s="135">
+      <c r="B77" s="44">
         <v>878</v>
       </c>
-      <c r="C77" s="135">
+      <c r="C77" s="44">
         <v>8</v>
       </c>
-      <c r="D77" s="135">
+      <c r="D77" s="44">
         <v>6</v>
       </c>
-      <c r="E77" s="135">
+      <c r="E77" s="44">
         <v>11</v>
       </c>
-      <c r="F77" s="135">
+      <c r="F77" s="44">
         <v>38</v>
       </c>
-      <c r="G77" s="135">
+      <c r="G77" s="44">
         <v>86</v>
       </c>
-      <c r="H77" s="135">
+      <c r="H77" s="44">
         <v>177</v>
       </c>
-      <c r="I77" s="135">
+      <c r="I77" s="44">
         <v>150</v>
       </c>
-      <c r="J77" s="135">
+      <c r="J77" s="44">
         <v>150</v>
       </c>
-      <c r="K77" s="135">
+      <c r="K77" s="44">
         <v>99</v>
       </c>
-      <c r="L77" s="135">
+      <c r="L77" s="44">
         <v>80</v>
       </c>
-      <c r="M77" s="135">
+      <c r="M77" s="44">
         <v>48</v>
       </c>
-      <c r="N77" s="135">
+      <c r="N77" s="44">
         <v>25</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A78" s="134" t="s">
+      <c r="A78" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="B78" s="135">
+      <c r="B78" s="44">
         <v>2530</v>
       </c>
-      <c r="C78" s="135">
+      <c r="C78" s="44">
         <v>44</v>
       </c>
-      <c r="D78" s="135">
+      <c r="D78" s="44">
         <v>35</v>
       </c>
-      <c r="E78" s="135">
+      <c r="E78" s="44">
         <v>56</v>
       </c>
-      <c r="F78" s="135">
+      <c r="F78" s="44">
         <v>79</v>
       </c>
-      <c r="G78" s="135">
+      <c r="G78" s="44">
         <v>215</v>
       </c>
-      <c r="H78" s="135">
+      <c r="H78" s="44">
         <v>413</v>
       </c>
-      <c r="I78" s="135">
+      <c r="I78" s="44">
         <v>470</v>
       </c>
-      <c r="J78" s="135">
+      <c r="J78" s="44">
         <v>519</v>
       </c>
-      <c r="K78" s="135">
+      <c r="K78" s="44">
         <v>317</v>
       </c>
-      <c r="L78" s="135">
+      <c r="L78" s="44">
         <v>157</v>
       </c>
-      <c r="M78" s="135">
+      <c r="M78" s="44">
         <v>151</v>
       </c>
-      <c r="N78" s="135">
+      <c r="N78" s="44">
         <v>74</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A79" s="134" t="s">
+      <c r="A79" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="B79" s="135">
+      <c r="B79" s="44">
         <v>1951</v>
       </c>
-      <c r="C79" s="135">
+      <c r="C79" s="44">
         <v>37</v>
       </c>
-      <c r="D79" s="135">
+      <c r="D79" s="44">
         <v>17</v>
       </c>
-      <c r="E79" s="135">
+      <c r="E79" s="44">
         <v>59</v>
       </c>
-      <c r="F79" s="135">
+      <c r="F79" s="44">
         <v>40</v>
       </c>
-      <c r="G79" s="135">
+      <c r="G79" s="44">
         <v>200</v>
       </c>
-      <c r="H79" s="135">
+      <c r="H79" s="44">
         <v>437</v>
       </c>
-      <c r="I79" s="135">
+      <c r="I79" s="44">
         <v>497</v>
       </c>
-      <c r="J79" s="135">
+      <c r="J79" s="44">
         <v>380</v>
       </c>
-      <c r="K79" s="135">
+      <c r="K79" s="44">
         <v>175</v>
       </c>
-      <c r="L79" s="135">
+      <c r="L79" s="44">
         <v>64</v>
       </c>
-      <c r="M79" s="135">
+      <c r="M79" s="44">
         <v>32</v>
       </c>
-      <c r="N79" s="135">
+      <c r="N79" s="44">
         <v>13</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A80" s="141" t="s">
+      <c r="A80" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="B80" s="142">
+      <c r="B80" s="132">
         <v>12256</v>
       </c>
-      <c r="C80" s="142">
+      <c r="C80" s="132">
         <v>283</v>
       </c>
-      <c r="D80" s="142">
+      <c r="D80" s="132">
         <v>280</v>
       </c>
-      <c r="E80" s="142">
+      <c r="E80" s="132">
         <v>317</v>
       </c>
-      <c r="F80" s="142">
+      <c r="F80" s="132">
         <v>601</v>
       </c>
-      <c r="G80" s="142">
+      <c r="G80" s="132">
         <v>1710</v>
       </c>
-      <c r="H80" s="142">
+      <c r="H80" s="132">
         <v>3010</v>
       </c>
-      <c r="I80" s="142">
+      <c r="I80" s="132">
         <v>2529</v>
       </c>
-      <c r="J80" s="142">
+      <c r="J80" s="132">
         <v>1729</v>
       </c>
-      <c r="K80" s="142">
+      <c r="K80" s="132">
         <v>837</v>
       </c>
-      <c r="L80" s="142">
+      <c r="L80" s="132">
         <v>429</v>
       </c>
-      <c r="M80" s="142">
+      <c r="M80" s="132">
         <v>368</v>
       </c>
-      <c r="N80" s="142">
+      <c r="N80" s="132">
         <v>163</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A81" s="136" t="s">
+      <c r="A81" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="B81" s="137">
+      <c r="B81" s="46">
         <v>1076</v>
       </c>
-      <c r="C81" s="137">
+      <c r="C81" s="46">
         <v>44</v>
       </c>
-      <c r="D81" s="137">
+      <c r="D81" s="46">
         <v>11</v>
       </c>
-      <c r="E81" s="137">
+      <c r="E81" s="46">
         <v>23</v>
       </c>
-      <c r="F81" s="137">
+      <c r="F81" s="46">
         <v>31</v>
       </c>
-      <c r="G81" s="137">
+      <c r="G81" s="46">
         <v>180</v>
       </c>
-      <c r="H81" s="137">
+      <c r="H81" s="46">
         <v>260</v>
       </c>
-      <c r="I81" s="137">
+      <c r="I81" s="46">
         <v>192</v>
       </c>
-      <c r="J81" s="137">
+      <c r="J81" s="46">
         <v>145</v>
       </c>
-      <c r="K81" s="137">
+      <c r="K81" s="46">
         <v>75</v>
       </c>
-      <c r="L81" s="137">
+      <c r="L81" s="46">
         <v>40</v>
       </c>
-      <c r="M81" s="137">
+      <c r="M81" s="46">
         <v>54</v>
       </c>
-      <c r="N81" s="137">
+      <c r="N81" s="46">
         <v>21</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A82" s="134" t="s">
+      <c r="A82" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="B82" s="135">
+      <c r="B82" s="44">
         <v>601</v>
       </c>
-      <c r="C82" s="135">
+      <c r="C82" s="44">
         <v>29</v>
       </c>
-      <c r="D82" s="135">
+      <c r="D82" s="44">
         <v>7</v>
       </c>
-      <c r="E82" s="135">
+      <c r="E82" s="44">
         <v>11</v>
       </c>
-      <c r="F82" s="135">
+      <c r="F82" s="44">
         <v>12</v>
       </c>
-      <c r="G82" s="135">
+      <c r="G82" s="44">
         <v>87</v>
       </c>
-      <c r="H82" s="135">
+      <c r="H82" s="44">
         <v>142</v>
       </c>
-      <c r="I82" s="135">
+      <c r="I82" s="44">
         <v>93</v>
       </c>
-      <c r="J82" s="135">
+      <c r="J82" s="44">
         <v>96</v>
       </c>
-      <c r="K82" s="135">
+      <c r="K82" s="44">
         <v>49</v>
       </c>
-      <c r="L82" s="135">
+      <c r="L82" s="44">
         <v>22</v>
       </c>
-      <c r="M82" s="135">
+      <c r="M82" s="44">
         <v>40</v>
       </c>
-      <c r="N82" s="135">
+      <c r="N82" s="44">
         <v>13</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A83" s="134" t="s">
+      <c r="A83" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B83" s="135">
+      <c r="B83" s="44">
         <v>204</v>
       </c>
-      <c r="C83" s="135">
+      <c r="C83" s="44">
         <v>11</v>
       </c>
-      <c r="D83" s="135">
+      <c r="D83" s="44">
         <v>3</v>
       </c>
-      <c r="E83" s="135">
+      <c r="E83" s="44">
         <v>4</v>
       </c>
-      <c r="F83" s="135">
+      <c r="F83" s="44">
         <v>6</v>
       </c>
-      <c r="G83" s="135">
+      <c r="G83" s="44">
         <v>26</v>
       </c>
-      <c r="H83" s="135">
+      <c r="H83" s="44">
         <v>48</v>
       </c>
-      <c r="I83" s="135">
+      <c r="I83" s="44">
         <v>47</v>
       </c>
-      <c r="J83" s="135">
+      <c r="J83" s="44">
         <v>26</v>
       </c>
-      <c r="K83" s="135">
+      <c r="K83" s="44">
         <v>13</v>
       </c>
-      <c r="L83" s="135">
+      <c r="L83" s="44">
         <v>7</v>
       </c>
-      <c r="M83" s="135">
+      <c r="M83" s="44">
         <v>5</v>
       </c>
-      <c r="N83" s="135">
+      <c r="N83" s="44">
         <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A84" s="134" t="s">
+      <c r="A84" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="B84" s="135">
+      <c r="B84" s="44">
         <v>102</v>
       </c>
-      <c r="C84" s="135">
+      <c r="C84" s="44">
         <v>2</v>
       </c>
-      <c r="D84" s="135">
+      <c r="D84" s="44">
         <v>1</v>
       </c>
-      <c r="E84" s="135">
+      <c r="E84" s="44">
         <v>4</v>
       </c>
-      <c r="F84" s="135">
+      <c r="F84" s="44">
         <v>5</v>
       </c>
-      <c r="G84" s="135">
+      <c r="G84" s="44">
         <v>12</v>
       </c>
-      <c r="H84" s="135">
+      <c r="H84" s="44">
         <v>28</v>
       </c>
-      <c r="I84" s="135">
+      <c r="I84" s="44">
         <v>16</v>
       </c>
-      <c r="J84" s="135">
+      <c r="J84" s="44">
         <v>13</v>
       </c>
-      <c r="K84" s="135">
+      <c r="K84" s="44">
         <v>9</v>
       </c>
-      <c r="L84" s="135">
+      <c r="L84" s="44">
         <v>7</v>
       </c>
-      <c r="M84" s="135">
+      <c r="M84" s="44">
         <v>5</v>
       </c>
-      <c r="N84" s="135">
+      <c r="N84" s="44">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A85" s="134" t="s">
+      <c r="A85" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="B85" s="135">
+      <c r="B85" s="44">
         <v>169</v>
       </c>
-      <c r="C85" s="135">
+      <c r="C85" s="44">
         <v>2</v>
       </c>
-      <c r="D85" s="135">
+      <c r="D85" s="44">
         <v>0</v>
       </c>
-      <c r="E85" s="135">
+      <c r="E85" s="44">
         <v>4</v>
       </c>
-      <c r="F85" s="135">
+      <c r="F85" s="44">
         <v>8</v>
       </c>
-      <c r="G85" s="135">
+      <c r="G85" s="44">
         <v>55</v>
       </c>
-      <c r="H85" s="135">
+      <c r="H85" s="44">
         <v>42</v>
       </c>
-      <c r="I85" s="135">
+      <c r="I85" s="44">
         <v>36</v>
       </c>
-      <c r="J85" s="135">
+      <c r="J85" s="44">
         <v>10</v>
       </c>
-      <c r="K85" s="135">
+      <c r="K85" s="44">
         <v>4</v>
       </c>
-      <c r="L85" s="135">
+      <c r="L85" s="44">
         <v>4</v>
       </c>
-      <c r="M85" s="135">
+      <c r="M85" s="44">
         <v>4</v>
       </c>
-      <c r="N85" s="135">
+      <c r="N85" s="44">
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A86" s="138" t="s">
+      <c r="A86" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="B86" s="137">
+      <c r="B86" s="46">
         <v>816</v>
       </c>
-      <c r="C86" s="137">
+      <c r="C86" s="46">
         <v>26</v>
       </c>
-      <c r="D86" s="137">
+      <c r="D86" s="46">
         <v>13</v>
       </c>
-      <c r="E86" s="137">
+      <c r="E86" s="46">
         <v>8</v>
       </c>
-      <c r="F86" s="137">
+      <c r="F86" s="46">
         <v>23</v>
       </c>
-      <c r="G86" s="137">
+      <c r="G86" s="46">
         <v>83</v>
       </c>
-      <c r="H86" s="137">
+      <c r="H86" s="46">
         <v>207</v>
       </c>
-      <c r="I86" s="137">
+      <c r="I86" s="46">
         <v>153</v>
       </c>
-      <c r="J86" s="137">
+      <c r="J86" s="46">
         <v>136</v>
       </c>
-      <c r="K86" s="137">
+      <c r="K86" s="46">
         <v>100</v>
       </c>
-      <c r="L86" s="137">
+      <c r="L86" s="46">
         <v>25</v>
       </c>
-      <c r="M86" s="137">
+      <c r="M86" s="46">
         <v>23</v>
       </c>
-      <c r="N86" s="137">
+      <c r="N86" s="46">
         <v>19</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A87" s="134" t="s">
+      <c r="A87" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="B87" s="135">
+      <c r="B87" s="44">
         <v>518</v>
       </c>
-      <c r="C87" s="135">
+      <c r="C87" s="44">
         <v>21</v>
       </c>
-      <c r="D87" s="135">
+      <c r="D87" s="44">
         <v>7</v>
       </c>
-      <c r="E87" s="135">
+      <c r="E87" s="44">
         <v>4</v>
       </c>
-      <c r="F87" s="135">
+      <c r="F87" s="44">
         <v>10</v>
       </c>
-      <c r="G87" s="135">
+      <c r="G87" s="44">
         <v>41</v>
       </c>
-      <c r="H87" s="135">
+      <c r="H87" s="44">
         <v>108</v>
       </c>
-      <c r="I87" s="135">
+      <c r="I87" s="44">
         <v>92</v>
       </c>
-      <c r="J87" s="135">
+      <c r="J87" s="44">
         <v>102</v>
       </c>
-      <c r="K87" s="135">
+      <c r="K87" s="44">
         <v>78</v>
       </c>
-      <c r="L87" s="135">
+      <c r="L87" s="44">
         <v>21</v>
       </c>
-      <c r="M87" s="135">
+      <c r="M87" s="44">
         <v>20</v>
       </c>
-      <c r="N87" s="135">
+      <c r="N87" s="44">
         <v>14</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A88" s="134" t="s">
+      <c r="A88" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="B88" s="135">
+      <c r="B88" s="44">
         <v>46</v>
       </c>
-      <c r="C88" s="135">
+      <c r="C88" s="44">
         <v>0</v>
       </c>
-      <c r="D88" s="135">
+      <c r="D88" s="44">
         <v>2</v>
       </c>
-      <c r="E88" s="135">
+      <c r="E88" s="44">
         <v>0</v>
       </c>
-      <c r="F88" s="135">
+      <c r="F88" s="44">
         <v>3</v>
       </c>
-      <c r="G88" s="135">
+      <c r="G88" s="44">
         <v>9</v>
       </c>
-      <c r="H88" s="135">
+      <c r="H88" s="44">
         <v>9</v>
       </c>
-      <c r="I88" s="135">
+      <c r="I88" s="44">
         <v>9</v>
       </c>
-      <c r="J88" s="135">
+      <c r="J88" s="44">
         <v>5</v>
       </c>
-      <c r="K88" s="135">
+      <c r="K88" s="44">
         <v>7</v>
       </c>
-      <c r="L88" s="135">
+      <c r="L88" s="44">
         <v>1</v>
       </c>
-      <c r="M88" s="135">
+      <c r="M88" s="44">
         <v>0</v>
       </c>
-      <c r="N88" s="135">
+      <c r="N88" s="44">
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A89" s="134" t="s">
+      <c r="A89" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="B89" s="135">
+      <c r="B89" s="44">
         <v>154</v>
       </c>
-      <c r="C89" s="135">
+      <c r="C89" s="44">
         <v>3</v>
       </c>
-      <c r="D89" s="135">
+      <c r="D89" s="44">
         <v>3</v>
       </c>
-      <c r="E89" s="135">
+      <c r="E89" s="44">
         <v>2</v>
       </c>
-      <c r="F89" s="135">
+      <c r="F89" s="44">
         <v>8</v>
       </c>
-      <c r="G89" s="135">
+      <c r="G89" s="44">
         <v>23</v>
       </c>
-      <c r="H89" s="135">
+      <c r="H89" s="44">
         <v>60</v>
       </c>
-      <c r="I89" s="135">
+      <c r="I89" s="44">
         <v>32</v>
       </c>
-      <c r="J89" s="135">
+      <c r="J89" s="44">
         <v>14</v>
       </c>
-      <c r="K89" s="135">
+      <c r="K89" s="44">
         <v>5</v>
       </c>
-      <c r="L89" s="135">
+      <c r="L89" s="44">
         <v>1</v>
       </c>
-      <c r="M89" s="135">
+      <c r="M89" s="44">
         <v>1</v>
       </c>
-      <c r="N89" s="135">
+      <c r="N89" s="44">
         <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A90" s="134" t="s">
+      <c r="A90" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B90" s="135">
+      <c r="B90" s="44">
         <v>98</v>
       </c>
-      <c r="C90" s="135">
+      <c r="C90" s="44">
         <v>2</v>
       </c>
-      <c r="D90" s="135">
+      <c r="D90" s="44">
         <v>1</v>
       </c>
-      <c r="E90" s="135">
+      <c r="E90" s="44">
         <v>2</v>
       </c>
-      <c r="F90" s="135">
+      <c r="F90" s="44">
         <v>2</v>
       </c>
-      <c r="G90" s="135">
+      <c r="G90" s="44">
         <v>10</v>
       </c>
-      <c r="H90" s="135">
+      <c r="H90" s="44">
         <v>30</v>
       </c>
-      <c r="I90" s="135">
+      <c r="I90" s="44">
         <v>20</v>
       </c>
-      <c r="J90" s="135">
+      <c r="J90" s="44">
         <v>15</v>
       </c>
-      <c r="K90" s="135">
+      <c r="K90" s="44">
         <v>10</v>
       </c>
-      <c r="L90" s="135">
+      <c r="L90" s="44">
         <v>2</v>
       </c>
-      <c r="M90" s="135">
+      <c r="M90" s="44">
         <v>2</v>
       </c>
-      <c r="N90" s="135">
+      <c r="N90" s="44">
         <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A91" s="138" t="s">
+      <c r="A91" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="B91" s="137">
+      <c r="B91" s="46">
         <v>4333</v>
       </c>
-      <c r="C91" s="137">
+      <c r="C91" s="46">
         <v>108</v>
       </c>
-      <c r="D91" s="137">
+      <c r="D91" s="46">
         <v>122</v>
       </c>
-      <c r="E91" s="137">
+      <c r="E91" s="46">
         <v>135</v>
       </c>
-      <c r="F91" s="137">
+      <c r="F91" s="46">
         <v>227</v>
       </c>
-      <c r="G91" s="137">
+      <c r="G91" s="46">
         <v>643</v>
       </c>
-      <c r="H91" s="137">
+      <c r="H91" s="46">
         <v>1100</v>
       </c>
-      <c r="I91" s="137">
+      <c r="I91" s="46">
         <v>868</v>
       </c>
-      <c r="J91" s="137">
+      <c r="J91" s="46">
         <v>545</v>
       </c>
-      <c r="K91" s="137">
+      <c r="K91" s="46">
         <v>258</v>
       </c>
-      <c r="L91" s="137">
+      <c r="L91" s="46">
         <v>155</v>
       </c>
-      <c r="M91" s="137">
+      <c r="M91" s="46">
         <v>121</v>
       </c>
-      <c r="N91" s="137">
+      <c r="N91" s="46">
         <v>51</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A92" s="134" t="s">
+      <c r="A92" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="B92" s="135">
+      <c r="B92" s="44">
         <v>1231</v>
       </c>
-      <c r="C92" s="135">
+      <c r="C92" s="44">
         <v>24</v>
       </c>
-      <c r="D92" s="135">
+      <c r="D92" s="44">
         <v>37</v>
       </c>
-      <c r="E92" s="135">
+      <c r="E92" s="44">
         <v>35</v>
       </c>
-      <c r="F92" s="135">
+      <c r="F92" s="44">
         <v>80</v>
       </c>
-      <c r="G92" s="135">
+      <c r="G92" s="44">
         <v>181</v>
       </c>
-      <c r="H92" s="135">
+      <c r="H92" s="44">
         <v>314</v>
       </c>
-      <c r="I92" s="135">
+      <c r="I92" s="44">
         <v>240</v>
       </c>
-      <c r="J92" s="135">
+      <c r="J92" s="44">
         <v>173</v>
       </c>
-      <c r="K92" s="135">
+      <c r="K92" s="44">
         <v>75</v>
       </c>
-      <c r="L92" s="135">
+      <c r="L92" s="44">
         <v>42</v>
       </c>
-      <c r="M92" s="135">
+      <c r="M92" s="44">
         <v>23</v>
       </c>
-      <c r="N92" s="135">
+      <c r="N92" s="44">
         <v>7</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A93" s="134" t="s">
+      <c r="A93" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="B93" s="135">
+      <c r="B93" s="44">
         <v>1249</v>
       </c>
-      <c r="C93" s="135">
+      <c r="C93" s="44">
         <v>27</v>
       </c>
-      <c r="D93" s="135">
+      <c r="D93" s="44">
         <v>31</v>
       </c>
-      <c r="E93" s="135">
+      <c r="E93" s="44">
         <v>30</v>
       </c>
-      <c r="F93" s="135">
+      <c r="F93" s="44">
         <v>68</v>
       </c>
-      <c r="G93" s="135">
+      <c r="G93" s="44">
         <v>176</v>
       </c>
-      <c r="H93" s="135">
+      <c r="H93" s="44">
         <v>300</v>
       </c>
-      <c r="I93" s="135">
+      <c r="I93" s="44">
         <v>293</v>
       </c>
-      <c r="J93" s="135">
+      <c r="J93" s="44">
         <v>147</v>
       </c>
-      <c r="K93" s="135">
+      <c r="K93" s="44">
         <v>73</v>
       </c>
-      <c r="L93" s="135">
+      <c r="L93" s="44">
         <v>45</v>
       </c>
-      <c r="M93" s="135">
+      <c r="M93" s="44">
         <v>38</v>
       </c>
-      <c r="N93" s="135">
+      <c r="N93" s="44">
         <v>21</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A94" s="134" t="s">
+      <c r="A94" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="B94" s="135">
+      <c r="B94" s="44">
         <v>841</v>
       </c>
-      <c r="C94" s="135">
+      <c r="C94" s="44">
         <v>16</v>
       </c>
-      <c r="D94" s="135">
+      <c r="D94" s="44">
         <v>13</v>
       </c>
-      <c r="E94" s="135">
+      <c r="E94" s="44">
         <v>22</v>
       </c>
-      <c r="F94" s="135">
+      <c r="F94" s="44">
         <v>49</v>
       </c>
-      <c r="G94" s="135">
+      <c r="G94" s="44">
         <v>149</v>
       </c>
-      <c r="H94" s="135">
+      <c r="H94" s="44">
         <v>224</v>
       </c>
-      <c r="I94" s="135">
+      <c r="I94" s="44">
         <v>177</v>
       </c>
-      <c r="J94" s="135">
+      <c r="J94" s="44">
         <v>100</v>
       </c>
-      <c r="K94" s="135">
+      <c r="K94" s="44">
         <v>44</v>
       </c>
-      <c r="L94" s="135">
+      <c r="L94" s="44">
         <v>27</v>
       </c>
-      <c r="M94" s="135">
+      <c r="M94" s="44">
         <v>14</v>
       </c>
-      <c r="N94" s="135">
+      <c r="N94" s="44">
         <v>6</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A95" s="134" t="s">
+      <c r="A95" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="B95" s="135">
+      <c r="B95" s="44">
         <v>666</v>
       </c>
-      <c r="C95" s="135">
+      <c r="C95" s="44">
         <v>34</v>
       </c>
-      <c r="D95" s="135">
+      <c r="D95" s="44">
         <v>36</v>
       </c>
-      <c r="E95" s="135">
+      <c r="E95" s="44">
         <v>47</v>
       </c>
-      <c r="F95" s="135">
+      <c r="F95" s="44">
         <v>24</v>
       </c>
-      <c r="G95" s="135">
+      <c r="G95" s="44">
         <v>91</v>
       </c>
-      <c r="H95" s="135">
+      <c r="H95" s="44">
         <v>148</v>
       </c>
-      <c r="I95" s="135">
+      <c r="I95" s="44">
         <v>98</v>
       </c>
-      <c r="J95" s="135">
+      <c r="J95" s="44">
         <v>73</v>
       </c>
-      <c r="K95" s="135">
+      <c r="K95" s="44">
         <v>43</v>
       </c>
-      <c r="L95" s="135">
+      <c r="L95" s="44">
         <v>31</v>
       </c>
-      <c r="M95" s="135">
+      <c r="M95" s="44">
         <v>27</v>
       </c>
-      <c r="N95" s="135">
+      <c r="N95" s="44">
         <v>14</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A96" s="134" t="s">
+      <c r="A96" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="B96" s="135">
+      <c r="B96" s="44">
         <v>346</v>
       </c>
-      <c r="C96" s="135">
+      <c r="C96" s="44">
         <v>7</v>
       </c>
-      <c r="D96" s="135">
+      <c r="D96" s="44">
         <v>5</v>
       </c>
-      <c r="E96" s="135">
+      <c r="E96" s="44">
         <v>1</v>
       </c>
-      <c r="F96" s="135">
+      <c r="F96" s="44">
         <v>6</v>
       </c>
-      <c r="G96" s="135">
+      <c r="G96" s="44">
         <v>46</v>
       </c>
-      <c r="H96" s="135">
+      <c r="H96" s="44">
         <v>114</v>
       </c>
-      <c r="I96" s="135">
+      <c r="I96" s="44">
         <v>60</v>
       </c>
-      <c r="J96" s="135">
+      <c r="J96" s="44">
         <v>52</v>
       </c>
-      <c r="K96" s="135">
+      <c r="K96" s="44">
         <v>23</v>
       </c>
-      <c r="L96" s="135">
+      <c r="L96" s="44">
         <v>10</v>
       </c>
-      <c r="M96" s="135">
+      <c r="M96" s="44">
         <v>19</v>
       </c>
-      <c r="N96" s="135">
+      <c r="N96" s="44">
         <v>3</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A97" s="138" t="s">
+      <c r="A97" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="B97" s="137">
+      <c r="B97" s="46">
         <v>6031</v>
       </c>
-      <c r="C97" s="137">
+      <c r="C97" s="46">
         <v>105</v>
       </c>
-      <c r="D97" s="137">
+      <c r="D97" s="46">
         <v>134</v>
       </c>
-      <c r="E97" s="137">
+      <c r="E97" s="46">
         <v>151</v>
       </c>
-      <c r="F97" s="137">
+      <c r="F97" s="46">
         <v>320</v>
       </c>
-      <c r="G97" s="137">
+      <c r="G97" s="46">
         <v>804</v>
       </c>
-      <c r="H97" s="137">
+      <c r="H97" s="46">
         <v>1443</v>
       </c>
-      <c r="I97" s="137">
+      <c r="I97" s="46">
         <v>1316</v>
       </c>
-      <c r="J97" s="137">
+      <c r="J97" s="46">
         <v>903</v>
       </c>
-      <c r="K97" s="137">
+      <c r="K97" s="46">
         <v>404</v>
       </c>
-      <c r="L97" s="137">
+      <c r="L97" s="46">
         <v>209</v>
       </c>
-      <c r="M97" s="137">
+      <c r="M97" s="46">
         <v>170</v>
       </c>
-      <c r="N97" s="137">
+      <c r="N97" s="46">
         <v>72</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A98" s="134" t="s">
+      <c r="A98" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="B98" s="135">
+      <c r="B98" s="44">
         <v>1325</v>
       </c>
-      <c r="C98" s="135">
+      <c r="C98" s="44">
         <v>15</v>
       </c>
-      <c r="D98" s="135">
+      <c r="D98" s="44">
         <v>26</v>
       </c>
-      <c r="E98" s="135">
+      <c r="E98" s="44">
         <v>23</v>
       </c>
-      <c r="F98" s="135">
+      <c r="F98" s="44">
         <v>48</v>
       </c>
-      <c r="G98" s="135">
+      <c r="G98" s="44">
         <v>141</v>
       </c>
-      <c r="H98" s="135">
+      <c r="H98" s="44">
         <v>323</v>
       </c>
-      <c r="I98" s="135">
+      <c r="I98" s="44">
         <v>279</v>
       </c>
-      <c r="J98" s="135">
+      <c r="J98" s="44">
         <v>214</v>
       </c>
-      <c r="K98" s="135">
+      <c r="K98" s="44">
         <v>108</v>
       </c>
-      <c r="L98" s="135">
+      <c r="L98" s="44">
         <v>60</v>
       </c>
-      <c r="M98" s="135">
+      <c r="M98" s="44">
         <v>58</v>
       </c>
-      <c r="N98" s="135">
+      <c r="N98" s="44">
         <v>30</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A99" s="134" t="s">
+      <c r="A99" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="B99" s="135">
+      <c r="B99" s="44">
         <v>2631</v>
       </c>
-      <c r="C99" s="135">
+      <c r="C99" s="44">
         <v>52</v>
       </c>
-      <c r="D99" s="135">
+      <c r="D99" s="44">
         <v>67</v>
       </c>
-      <c r="E99" s="135">
+      <c r="E99" s="44">
         <v>76</v>
       </c>
-      <c r="F99" s="135">
+      <c r="F99" s="44">
         <v>147</v>
       </c>
-      <c r="G99" s="135">
+      <c r="G99" s="44">
         <v>393</v>
       </c>
-      <c r="H99" s="135">
+      <c r="H99" s="44">
         <v>635</v>
       </c>
-      <c r="I99" s="135">
+      <c r="I99" s="44">
         <v>555</v>
       </c>
-      <c r="J99" s="135">
+      <c r="J99" s="44">
         <v>372</v>
       </c>
-      <c r="K99" s="135">
+      <c r="K99" s="44">
         <v>156</v>
       </c>
-      <c r="L99" s="135">
+      <c r="L99" s="44">
         <v>93</v>
       </c>
-      <c r="M99" s="135">
+      <c r="M99" s="44">
         <v>65</v>
       </c>
-      <c r="N99" s="135">
+      <c r="N99" s="44">
         <v>20</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A100" s="134" t="s">
+      <c r="A100" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="B100" s="135">
+      <c r="B100" s="44">
         <v>1883</v>
       </c>
-      <c r="C100" s="135">
+      <c r="C100" s="44">
         <v>34</v>
       </c>
-      <c r="D100" s="135">
+      <c r="D100" s="44">
         <v>34</v>
       </c>
-      <c r="E100" s="135">
+      <c r="E100" s="44">
         <v>50</v>
       </c>
-      <c r="F100" s="135">
+      <c r="F100" s="44">
         <v>97</v>
       </c>
-      <c r="G100" s="135">
+      <c r="G100" s="44">
         <v>256</v>
       </c>
-      <c r="H100" s="135">
+      <c r="H100" s="44">
         <v>457</v>
       </c>
-      <c r="I100" s="135">
+      <c r="I100" s="44">
         <v>449</v>
       </c>
-      <c r="J100" s="135">
+      <c r="J100" s="44">
         <v>296</v>
       </c>
-      <c r="K100" s="135">
+      <c r="K100" s="44">
         <v>122</v>
       </c>
-      <c r="L100" s="135">
+      <c r="L100" s="44">
         <v>44</v>
       </c>
-      <c r="M100" s="135">
+      <c r="M100" s="44">
         <v>32</v>
       </c>
-      <c r="N100" s="135">
+      <c r="N100" s="44">
         <v>12</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A101" s="139" t="s">
+      <c r="A101" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="B101" s="140">
+      <c r="B101" s="49">
         <v>192</v>
       </c>
-      <c r="C101" s="140">
+      <c r="C101" s="49">
         <v>4</v>
       </c>
-      <c r="D101" s="140">
+      <c r="D101" s="49">
         <v>7</v>
       </c>
-      <c r="E101" s="140">
+      <c r="E101" s="49">
         <v>2</v>
       </c>
-      <c r="F101" s="140">
+      <c r="F101" s="49">
         <v>28</v>
       </c>
-      <c r="G101" s="140">
+      <c r="G101" s="49">
         <v>14</v>
       </c>
-      <c r="H101" s="140">
+      <c r="H101" s="49">
         <v>28</v>
       </c>
-      <c r="I101" s="140">
+      <c r="I101" s="49">
         <v>33</v>
       </c>
-      <c r="J101" s="140">
+      <c r="J101" s="49">
         <v>21</v>
       </c>
-      <c r="K101" s="140">
+      <c r="K101" s="49">
         <v>18</v>
       </c>
-      <c r="L101" s="140">
+      <c r="L101" s="49">
         <v>12</v>
       </c>
-      <c r="M101" s="140">
+      <c r="M101" s="49">
         <v>15</v>
       </c>
-      <c r="N101" s="140">
+      <c r="N101" s="49">
         <v>10</v>
       </c>
     </row>
